--- a/DFT_Calculations/3.get_properties/gp_openshell/5.postprocessed_results/Properties_postprocessed_all_prefixes.xlsx
+++ b/DFT_Calculations/3.get_properties/gp_openshell/5.postprocessed_results/Properties_postprocessed_all_prefixes.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="131">
   <si>
     <t>log_name</t>
   </si>
@@ -122,12 +122,6 @@
     <t>Sterimol_B5_C1_C2(Å)_morfeus</t>
   </si>
   <si>
-    <t>pyramidalization_Gavrish_C1(°)</t>
-  </si>
-  <si>
-    <t>pyramidalization_Agranat-Radhakrishnan_C1</t>
-  </si>
-  <si>
     <t>2.log_files\pyrdz1_conf-1_openshell</t>
   </si>
   <si>
@@ -219,12 +213,6 @@
   </si>
   <si>
     <t>Sterimol_B5_C1_C2(Å)_morfeus_Boltz</t>
-  </si>
-  <si>
-    <t>pyramidalization_Gavrish_C1(°)_Boltz</t>
-  </si>
-  <si>
-    <t>pyramidalization_Agranat-Radhakrishnan_C1_Boltz</t>
   </si>
   <si>
     <t>pyrdz1</t>
@@ -783,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI25"/>
+  <dimension ref="A1:AG25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -815,11 +803,9 @@
     <col min="28" max="30" width="17.7109375" customWidth="1"/>
     <col min="31" max="31" width="27.7109375" customWidth="1"/>
     <col min="32" max="33" width="28.7109375" customWidth="1"/>
-    <col min="34" max="34" width="30.7109375" customWidth="1"/>
-    <col min="35" max="35" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,16 +905,10 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" t="s">
         <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
-      <c r="A2" t="s">
-        <v>35</v>
       </c>
       <c r="B2">
         <v>-302.869329</v>
@@ -1026,16 +1006,10 @@
       <c r="AG2">
         <v>3.261610894206323</v>
       </c>
-      <c r="AH2">
-        <v>0.001160842286618436</v>
-      </c>
-      <c r="AI2">
-        <v>0.0001747527194562766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>-302.869329</v>
@@ -1121,16 +1095,10 @@
       <c r="AG3">
         <v>3.261610894206323</v>
       </c>
-      <c r="AH3">
-        <v>0.001160842286618436</v>
-      </c>
-      <c r="AI3">
-        <v>0.0001747527194562766</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1216,16 +1184,10 @@
       <c r="AG4">
         <v>0</v>
       </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>-302.869329</v>
@@ -1311,16 +1273,10 @@
       <c r="AG5">
         <v>3.261610894206323</v>
       </c>
-      <c r="AH5">
-        <v>0.001160842286618436</v>
-      </c>
-      <c r="AI5">
-        <v>0.0001747527194562766</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>-302.869329</v>
@@ -1406,16 +1362,10 @@
       <c r="AG6">
         <v>3.261610894206323</v>
       </c>
-      <c r="AH6">
-        <v>0.001160842286618436</v>
-      </c>
-      <c r="AI6">
-        <v>0.0001747527194562766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1501,16 +1451,10 @@
       <c r="AG7">
         <v>0</v>
       </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>-302.869329</v>
@@ -1608,16 +1552,10 @@
       <c r="AG8">
         <v>3.261610894206323</v>
       </c>
-      <c r="AH8">
-        <v>0.001160842286618436</v>
-      </c>
-      <c r="AI8">
-        <v>0.0001747527194562766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>-302.869329</v>
@@ -1715,16 +1653,10 @@
       <c r="AG9">
         <v>3.261610894206323</v>
       </c>
-      <c r="AH9">
-        <v>0.001160842286618436</v>
-      </c>
-      <c r="AI9">
-        <v>0.0001747527194562766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35">
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>-302.869551</v>
@@ -1822,16 +1754,10 @@
       <c r="AG10">
         <v>3.270417371590462</v>
       </c>
-      <c r="AH10">
-        <v>0.006961068992791808</v>
-      </c>
-      <c r="AI10">
-        <v>0.001047528360166631</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35">
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>-302.869551</v>
@@ -1917,16 +1843,10 @@
       <c r="AG11">
         <v>3.270417371590462</v>
       </c>
-      <c r="AH11">
-        <v>0.006961068992791808</v>
-      </c>
-      <c r="AI11">
-        <v>0.001047528360166631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35">
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -2012,16 +1932,10 @@
       <c r="AG12">
         <v>0</v>
       </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35">
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>-302.869551</v>
@@ -2107,16 +2021,10 @@
       <c r="AG13">
         <v>3.270417371590462</v>
       </c>
-      <c r="AH13">
-        <v>0.006961068992791808</v>
-      </c>
-      <c r="AI13">
-        <v>0.001047528360166631</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35">
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>-302.869551</v>
@@ -2202,16 +2110,10 @@
       <c r="AG14">
         <v>3.270417371590462</v>
       </c>
-      <c r="AH14">
-        <v>0.006961068992791808</v>
-      </c>
-      <c r="AI14">
-        <v>0.001047528360166631</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35">
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2297,16 +2199,10 @@
       <c r="AG15">
         <v>0</v>
       </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35">
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>-302.869551</v>
@@ -2404,16 +2300,10 @@
       <c r="AG16">
         <v>3.270417371590462</v>
       </c>
-      <c r="AH16">
-        <v>0.006961068992791808</v>
-      </c>
-      <c r="AI16">
-        <v>0.001047528360166631</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35">
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>-302.869551</v>
@@ -2511,16 +2401,10 @@
       <c r="AG17">
         <v>3.270417371590462</v>
       </c>
-      <c r="AH17">
-        <v>0.006961068992791808</v>
-      </c>
-      <c r="AI17">
-        <v>0.001047528360166631</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35">
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B18">
         <v>-342.157476</v>
@@ -2618,16 +2502,10 @@
       <c r="AG18">
         <v>3.26672542274073</v>
       </c>
-      <c r="AH18">
-        <v>0.003600500541489074</v>
-      </c>
-      <c r="AI18">
-        <v>0.000540466035491132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35">
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>-342.157476</v>
@@ -2713,16 +2591,10 @@
       <c r="AG19">
         <v>3.26672542274073</v>
       </c>
-      <c r="AH19">
-        <v>0.003600500541489074</v>
-      </c>
-      <c r="AI19">
-        <v>0.000540466035491132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35">
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2808,16 +2680,10 @@
       <c r="AG20">
         <v>0</v>
       </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35">
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>-342.157476</v>
@@ -2903,16 +2769,10 @@
       <c r="AG21">
         <v>3.26672542274073</v>
       </c>
-      <c r="AH21">
-        <v>0.003600500541489074</v>
-      </c>
-      <c r="AI21">
-        <v>0.000540466035491132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35">
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>-342.157476</v>
@@ -2998,16 +2858,10 @@
       <c r="AG22">
         <v>3.26672542274073</v>
       </c>
-      <c r="AH22">
-        <v>0.003600500541489074</v>
-      </c>
-      <c r="AI22">
-        <v>0.000540466035491132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35">
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -3093,16 +2947,10 @@
       <c r="AG23">
         <v>0</v>
       </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35">
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>-342.157476</v>
@@ -3200,16 +3048,10 @@
       <c r="AG24">
         <v>3.26672542274073</v>
       </c>
-      <c r="AH24">
-        <v>0.003600500541489074</v>
-      </c>
-      <c r="AI24">
-        <v>0.000540466035491132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35">
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>-342.157476</v>
@@ -3306,12 +3148,6 @@
       </c>
       <c r="AG25">
         <v>3.26672542274073</v>
-      </c>
-      <c r="AH25">
-        <v>0.003600500541489074</v>
-      </c>
-      <c r="AI25">
-        <v>0.000540466035491132</v>
       </c>
     </row>
   </sheetData>
@@ -3321,7 +3157,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3348,13 +3184,11 @@
     <col min="24" max="25" width="19.7109375" customWidth="1"/>
     <col min="26" max="26" width="33.7109375" customWidth="1"/>
     <col min="27" max="28" width="34.7109375" customWidth="1"/>
-    <col min="29" max="29" width="36.7109375" customWidth="1"/>
-    <col min="30" max="30" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -3378,75 +3212,69 @@
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:28">
+      <c r="A2" t="s">
         <v>64</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="A2" t="s">
-        <v>68</v>
       </c>
       <c r="B2">
         <v>-302.930027</v>
@@ -3529,16 +3357,10 @@
       <c r="AB2">
         <v>3.261610894206323</v>
       </c>
-      <c r="AC2">
-        <v>0.001160842286618436</v>
-      </c>
-      <c r="AD2">
-        <v>0.0001747527194562766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3">
         <v>-302.930289</v>
@@ -3621,16 +3443,10 @@
       <c r="AB3">
         <v>3.270417371590462</v>
       </c>
-      <c r="AC3">
-        <v>0.006961068992791808</v>
-      </c>
-      <c r="AD3">
-        <v>0.001047528360166631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B4">
         <v>-342.243845</v>
@@ -3712,12 +3528,6 @@
       </c>
       <c r="AB4">
         <v>3.26672542274073</v>
-      </c>
-      <c r="AC4">
-        <v>0.003600500541489074</v>
-      </c>
-      <c r="AD4">
-        <v>0.000540466035491132</v>
       </c>
     </row>
   </sheetData>
@@ -3727,7 +3537,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI145"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3759,11 +3569,9 @@
     <col min="28" max="30" width="17.7109375" customWidth="1"/>
     <col min="31" max="31" width="27.7109375" customWidth="1"/>
     <col min="32" max="33" width="28.7109375" customWidth="1"/>
-    <col min="34" max="34" width="30.7109375" customWidth="1"/>
-    <col min="35" max="35" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3863,16 +3671,10 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>-440.444526</v>
@@ -3970,16 +3772,10 @@
       <c r="AG2">
         <v>4.634241735410031</v>
       </c>
-      <c r="AH2">
-        <v>0.003384712563802958</v>
-      </c>
-      <c r="AI2">
-        <v>0.0005095253390418424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>-440.444526</v>
@@ -4065,16 +3861,10 @@
       <c r="AG3">
         <v>4.634241735410031</v>
       </c>
-      <c r="AH3">
-        <v>0.003384712563802958</v>
-      </c>
-      <c r="AI3">
-        <v>0.0005095253390418424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4160,16 +3950,10 @@
       <c r="AG4">
         <v>0</v>
       </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>-440.444526</v>
@@ -4255,16 +4039,10 @@
       <c r="AG5">
         <v>4.634241735410031</v>
       </c>
-      <c r="AH5">
-        <v>0.003384712563802958</v>
-      </c>
-      <c r="AI5">
-        <v>0.0005095253390418424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>-440.444526</v>
@@ -4350,16 +4128,10 @@
       <c r="AG6">
         <v>4.634241735410031</v>
       </c>
-      <c r="AH6">
-        <v>0.003384712563802958</v>
-      </c>
-      <c r="AI6">
-        <v>0.0005095253390418424</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -4445,16 +4217,10 @@
       <c r="AG7">
         <v>0</v>
       </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>-440.444526</v>
@@ -4552,16 +4318,10 @@
       <c r="AG8">
         <v>4.634241735410031</v>
       </c>
-      <c r="AH8">
-        <v>0.003384712563802958</v>
-      </c>
-      <c r="AI8">
-        <v>0.0005095253390418424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>-440.444526</v>
@@ -4659,16 +4419,10 @@
       <c r="AG9">
         <v>4.634241735410031</v>
       </c>
-      <c r="AH9">
-        <v>0.003384712563802958</v>
-      </c>
-      <c r="AI9">
-        <v>0.0005095253390418424</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35">
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B10">
         <v>-440.444305</v>
@@ -4766,16 +4520,10 @@
       <c r="AG10">
         <v>4.32023067308818</v>
       </c>
-      <c r="AH10">
-        <v>0.003770977278349009</v>
-      </c>
-      <c r="AI10">
-        <v>0.0005674069619305055</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35">
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>-440.444305</v>
@@ -4861,16 +4609,10 @@
       <c r="AG11">
         <v>4.32023067308818</v>
       </c>
-      <c r="AH11">
-        <v>0.003770977278349009</v>
-      </c>
-      <c r="AI11">
-        <v>0.0005674069619305055</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35">
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4956,16 +4698,10 @@
       <c r="AG12">
         <v>0</v>
       </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35">
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>-440.444305</v>
@@ -5051,16 +4787,10 @@
       <c r="AG13">
         <v>4.32023067308818</v>
       </c>
-      <c r="AH13">
-        <v>0.003770977278349009</v>
-      </c>
-      <c r="AI13">
-        <v>0.0005674069619305055</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35">
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>-440.444305</v>
@@ -5146,16 +4876,10 @@
       <c r="AG14">
         <v>4.32023067308818</v>
       </c>
-      <c r="AH14">
-        <v>0.003770977278349009</v>
-      </c>
-      <c r="AI14">
-        <v>0.0005674069619305055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35">
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -5241,16 +4965,10 @@
       <c r="AG15">
         <v>0</v>
       </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35">
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>-440.444305</v>
@@ -5348,16 +5066,10 @@
       <c r="AG16">
         <v>4.32023067308818</v>
       </c>
-      <c r="AH16">
-        <v>0.003770977278349009</v>
-      </c>
-      <c r="AI16">
-        <v>0.0005674069619305055</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35">
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>-440.444305</v>
@@ -5455,16 +5167,10 @@
       <c r="AG17">
         <v>4.32023067308818</v>
       </c>
-      <c r="AH17">
-        <v>0.003770977278349009</v>
-      </c>
-      <c r="AI17">
-        <v>0.0005674069619305055</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35">
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B18">
         <v>-440.443322</v>
@@ -5562,16 +5268,10 @@
       <c r="AG18">
         <v>5.719376375537507</v>
       </c>
-      <c r="AH18">
-        <v>0.001437999498789009</v>
-      </c>
-      <c r="AI18">
-        <v>0.0002161625401717892</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35">
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>-440.443322</v>
@@ -5657,16 +5357,10 @@
       <c r="AG19">
         <v>5.719376375537507</v>
       </c>
-      <c r="AH19">
-        <v>0.001437999498789009</v>
-      </c>
-      <c r="AI19">
-        <v>0.0002161625401717892</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35">
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -5752,16 +5446,10 @@
       <c r="AG20">
         <v>0</v>
       </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35">
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>-440.443322</v>
@@ -5847,16 +5535,10 @@
       <c r="AG21">
         <v>5.719376375537507</v>
       </c>
-      <c r="AH21">
-        <v>0.001437999498789009</v>
-      </c>
-      <c r="AI21">
-        <v>0.0002161625401717892</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35">
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>-440.443322</v>
@@ -5942,16 +5624,10 @@
       <c r="AG22">
         <v>5.719376375537507</v>
       </c>
-      <c r="AH22">
-        <v>0.001437999498789009</v>
-      </c>
-      <c r="AI22">
-        <v>0.0002161625401717892</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35">
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -6037,16 +5713,10 @@
       <c r="AG23">
         <v>0</v>
       </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35">
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>-440.443322</v>
@@ -6144,16 +5814,10 @@
       <c r="AG24">
         <v>5.719376375537507</v>
       </c>
-      <c r="AH24">
-        <v>0.001437999498789009</v>
-      </c>
-      <c r="AI24">
-        <v>0.0002161625401717892</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35">
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>-440.443322</v>
@@ -6251,16 +5915,10 @@
       <c r="AG25">
         <v>5.719376375537507</v>
       </c>
-      <c r="AH25">
-        <v>0.001437999498789009</v>
-      </c>
-      <c r="AI25">
-        <v>0.0002161625401717892</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35">
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>-440.442543</v>
@@ -6358,16 +6016,10 @@
       <c r="AG26">
         <v>5.73084897754546</v>
       </c>
-      <c r="AH26">
-        <v>0.001690488067145327</v>
-      </c>
-      <c r="AI26">
-        <v>0.000254140451796319</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35">
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>-440.442543</v>
@@ -6453,16 +6105,10 @@
       <c r="AG27">
         <v>5.73084897754546</v>
       </c>
-      <c r="AH27">
-        <v>0.001690488067145327</v>
-      </c>
-      <c r="AI27">
-        <v>0.000254140451796319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35">
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -6548,16 +6194,10 @@
       <c r="AG28">
         <v>0</v>
       </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35">
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>-440.442543</v>
@@ -6643,16 +6283,10 @@
       <c r="AG29">
         <v>5.73084897754546</v>
       </c>
-      <c r="AH29">
-        <v>0.001690488067145327</v>
-      </c>
-      <c r="AI29">
-        <v>0.000254140451796319</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35">
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>-440.442543</v>
@@ -6738,16 +6372,10 @@
       <c r="AG30">
         <v>5.73084897754546</v>
       </c>
-      <c r="AH30">
-        <v>0.001690488067145327</v>
-      </c>
-      <c r="AI30">
-        <v>0.000254140451796319</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35">
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -6833,16 +6461,10 @@
       <c r="AG31">
         <v>0</v>
       </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35">
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>-440.442543</v>
@@ -6940,16 +6562,10 @@
       <c r="AG32">
         <v>5.73084897754546</v>
       </c>
-      <c r="AH32">
-        <v>0.001690488067145327</v>
-      </c>
-      <c r="AI32">
-        <v>0.000254140451796319</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35">
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>-440.442543</v>
@@ -7047,16 +6663,10 @@
       <c r="AG33">
         <v>5.73084897754546</v>
       </c>
-      <c r="AH33">
-        <v>0.001690488067145327</v>
-      </c>
-      <c r="AI33">
-        <v>0.000254140451796319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35">
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B34">
         <v>-440.443879</v>
@@ -7154,16 +6764,10 @@
       <c r="AG34">
         <v>4.388775210739726</v>
       </c>
-      <c r="AH34">
-        <v>0.0005157139913190157</v>
-      </c>
-      <c r="AI34">
-        <v>7.763637349886503E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35">
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>-440.443879</v>
@@ -7249,16 +6853,10 @@
       <c r="AG35">
         <v>4.388775210739726</v>
       </c>
-      <c r="AH35">
-        <v>0.0005157139913190157</v>
-      </c>
-      <c r="AI35">
-        <v>7.763637349886503E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35">
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -7344,16 +6942,10 @@
       <c r="AG36">
         <v>0</v>
       </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35">
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>-440.443879</v>
@@ -7439,16 +7031,10 @@
       <c r="AG37">
         <v>4.388775210739726</v>
       </c>
-      <c r="AH37">
-        <v>0.0005157139913190157</v>
-      </c>
-      <c r="AI37">
-        <v>7.763637349886503E-05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35">
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>-440.443879</v>
@@ -7534,16 +7120,10 @@
       <c r="AG38">
         <v>4.388775210739726</v>
       </c>
-      <c r="AH38">
-        <v>0.0005157139913190157</v>
-      </c>
-      <c r="AI38">
-        <v>7.763637349886503E-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35">
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -7629,16 +7209,10 @@
       <c r="AG39">
         <v>0</v>
       </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35">
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>-440.443879</v>
@@ -7736,16 +7310,10 @@
       <c r="AG40">
         <v>4.388775210739726</v>
       </c>
-      <c r="AH40">
-        <v>0.0005157139913190157</v>
-      </c>
-      <c r="AI40">
-        <v>7.763637349886503E-05</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35">
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>-440.443879</v>
@@ -7843,16 +7411,10 @@
       <c r="AG41">
         <v>4.388775210739726</v>
       </c>
-      <c r="AH41">
-        <v>0.0005157139913190157</v>
-      </c>
-      <c r="AI41">
-        <v>7.763637349886503E-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:35">
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B42">
         <v>-440.442826</v>
@@ -7950,16 +7512,10 @@
       <c r="AG42">
         <v>5.713309756808888</v>
       </c>
-      <c r="AH42">
-        <v>0.001028030833864126</v>
-      </c>
-      <c r="AI42">
-        <v>0.0001545261989087327</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35">
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B43">
         <v>-440.442826</v>
@@ -8045,16 +7601,10 @@
       <c r="AG43">
         <v>5.713309756808888</v>
       </c>
-      <c r="AH43">
-        <v>0.001028030833864126</v>
-      </c>
-      <c r="AI43">
-        <v>0.0001545261989087327</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35">
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -8140,16 +7690,10 @@
       <c r="AG44">
         <v>0</v>
       </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35">
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B45">
         <v>-440.442826</v>
@@ -8235,16 +7779,10 @@
       <c r="AG45">
         <v>5.713309756808888</v>
       </c>
-      <c r="AH45">
-        <v>0.001028030833864126</v>
-      </c>
-      <c r="AI45">
-        <v>0.0001545261989087327</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35">
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B46">
         <v>-440.442826</v>
@@ -8330,16 +7868,10 @@
       <c r="AG46">
         <v>5.713309756808888</v>
       </c>
-      <c r="AH46">
-        <v>0.001028030833864126</v>
-      </c>
-      <c r="AI46">
-        <v>0.0001545261989087327</v>
-      </c>
-    </row>
-    <row r="47" spans="1:35">
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -8425,16 +7957,10 @@
       <c r="AG47">
         <v>0</v>
       </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35">
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>-440.442826</v>
@@ -8532,16 +8058,10 @@
       <c r="AG48">
         <v>5.713309756808888</v>
       </c>
-      <c r="AH48">
-        <v>0.001028030833864126</v>
-      </c>
-      <c r="AI48">
-        <v>0.0001545261989087327</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35">
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B49">
         <v>-440.442826</v>
@@ -8639,16 +8159,10 @@
       <c r="AG49">
         <v>5.713309756808888</v>
       </c>
-      <c r="AH49">
-        <v>0.001028030833864126</v>
-      </c>
-      <c r="AI49">
-        <v>0.0001545261989087327</v>
-      </c>
-    </row>
-    <row r="50" spans="1:35">
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>-479.732974</v>
@@ -8746,16 +8260,10 @@
       <c r="AG50">
         <v>4.555282912560074</v>
       </c>
-      <c r="AH50">
-        <v>0.001691422680309833</v>
-      </c>
-      <c r="AI50">
-        <v>0.0002540081573674681</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35">
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B51">
         <v>-479.732974</v>
@@ -8841,16 +8349,10 @@
       <c r="AG51">
         <v>4.555282912560074</v>
       </c>
-      <c r="AH51">
-        <v>0.001691422680309833</v>
-      </c>
-      <c r="AI51">
-        <v>0.0002540081573674681</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35">
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -8936,16 +8438,10 @@
       <c r="AG52">
         <v>0</v>
       </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35">
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B53">
         <v>-479.732974</v>
@@ -9031,16 +8527,10 @@
       <c r="AG53">
         <v>4.555282912560074</v>
       </c>
-      <c r="AH53">
-        <v>0.001691422680309833</v>
-      </c>
-      <c r="AI53">
-        <v>0.0002540081573674681</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35">
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B54">
         <v>-479.732974</v>
@@ -9126,16 +8616,10 @@
       <c r="AG54">
         <v>4.555282912560074</v>
       </c>
-      <c r="AH54">
-        <v>0.001691422680309833</v>
-      </c>
-      <c r="AI54">
-        <v>0.0002540081573674681</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35">
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -9221,16 +8705,10 @@
       <c r="AG55">
         <v>0</v>
       </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35">
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B56">
         <v>-479.732974</v>
@@ -9328,16 +8806,10 @@
       <c r="AG56">
         <v>4.555282912560074</v>
       </c>
-      <c r="AH56">
-        <v>0.001691422680309833</v>
-      </c>
-      <c r="AI56">
-        <v>0.0002540081573674681</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35">
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B57">
         <v>-479.732974</v>
@@ -9435,16 +8907,10 @@
       <c r="AG57">
         <v>4.555282912560074</v>
       </c>
-      <c r="AH57">
-        <v>0.001691422680309833</v>
-      </c>
-      <c r="AI57">
-        <v>0.0002540081573674681</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35">
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B58">
         <v>-479.731531</v>
@@ -9542,16 +9008,10 @@
       <c r="AG58">
         <v>4.283119753190393</v>
       </c>
-      <c r="AH58">
-        <v>0</v>
-      </c>
-      <c r="AI58">
-        <v>9.149531403551907E-11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35">
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B59">
         <v>-479.731531</v>
@@ -9637,16 +9097,10 @@
       <c r="AG59">
         <v>4.283119753190393</v>
       </c>
-      <c r="AH59">
-        <v>0</v>
-      </c>
-      <c r="AI59">
-        <v>9.149531403551907E-11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35">
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -9732,16 +9186,10 @@
       <c r="AG60">
         <v>0</v>
       </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
-      <c r="AI60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35">
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B61">
         <v>-479.731531</v>
@@ -9827,16 +9275,10 @@
       <c r="AG61">
         <v>4.283119753190393</v>
       </c>
-      <c r="AH61">
-        <v>0</v>
-      </c>
-      <c r="AI61">
-        <v>9.149531403551907E-11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35">
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B62">
         <v>-479.731531</v>
@@ -9922,16 +9364,10 @@
       <c r="AG62">
         <v>4.283119753190393</v>
       </c>
-      <c r="AH62">
-        <v>0</v>
-      </c>
-      <c r="AI62">
-        <v>9.149531403551907E-11</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35">
+    </row>
+    <row r="63" spans="1:33">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -10017,16 +9453,10 @@
       <c r="AG63">
         <v>0</v>
       </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
-      <c r="AI63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35">
+    </row>
+    <row r="64" spans="1:33">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B64">
         <v>-479.731531</v>
@@ -10124,16 +9554,10 @@
       <c r="AG64">
         <v>4.283119753190393</v>
       </c>
-      <c r="AH64">
-        <v>0</v>
-      </c>
-      <c r="AI64">
-        <v>9.149531403551907E-11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35">
+    </row>
+    <row r="65" spans="1:33">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B65">
         <v>-479.731531</v>
@@ -10231,16 +9655,10 @@
       <c r="AG65">
         <v>4.283119753190393</v>
       </c>
-      <c r="AH65">
-        <v>0</v>
-      </c>
-      <c r="AI65">
-        <v>9.149531403551907E-11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35">
+    </row>
+    <row r="66" spans="1:33">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B66">
         <v>-479.724594</v>
@@ -10338,16 +9756,10 @@
       <c r="AG66">
         <v>5.671459708322152</v>
       </c>
-      <c r="AH66">
-        <v>0.0007720500158945728</v>
-      </c>
-      <c r="AI66">
-        <v>0.0001143745450932646</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35">
+    </row>
+    <row r="67" spans="1:33">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B67">
         <v>-479.724594</v>
@@ -10433,16 +9845,10 @@
       <c r="AG67">
         <v>5.671459708322152</v>
       </c>
-      <c r="AH67">
-        <v>0.0007720500158945728</v>
-      </c>
-      <c r="AI67">
-        <v>0.0001143745450932646</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35">
+    </row>
+    <row r="68" spans="1:33">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -10528,16 +9934,10 @@
       <c r="AG68">
         <v>0</v>
       </c>
-      <c r="AH68">
-        <v>0</v>
-      </c>
-      <c r="AI68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35">
+    </row>
+    <row r="69" spans="1:33">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B69">
         <v>-479.724594</v>
@@ -10623,16 +10023,10 @@
       <c r="AG69">
         <v>5.671459708322152</v>
       </c>
-      <c r="AH69">
-        <v>0.0007720500158945728</v>
-      </c>
-      <c r="AI69">
-        <v>0.0001143745450932646</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35">
+    </row>
+    <row r="70" spans="1:33">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B70">
         <v>-479.724594</v>
@@ -10718,16 +10112,10 @@
       <c r="AG70">
         <v>5.671459708322152</v>
       </c>
-      <c r="AH70">
-        <v>0.0007720500158945728</v>
-      </c>
-      <c r="AI70">
-        <v>0.0001143745450932646</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35">
+    </row>
+    <row r="71" spans="1:33">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -10813,16 +10201,10 @@
       <c r="AG71">
         <v>0</v>
       </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
-      <c r="AI71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:35">
+    </row>
+    <row r="72" spans="1:33">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B72">
         <v>-479.724594</v>
@@ -10920,16 +10302,10 @@
       <c r="AG72">
         <v>5.671459708322152</v>
       </c>
-      <c r="AH72">
-        <v>0.0007720500158945728</v>
-      </c>
-      <c r="AI72">
-        <v>0.0001143745450932646</v>
-      </c>
-    </row>
-    <row r="73" spans="1:35">
+    </row>
+    <row r="73" spans="1:33">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B73">
         <v>-479.724594</v>
@@ -11027,16 +10403,10 @@
       <c r="AG73">
         <v>5.671459708322152</v>
       </c>
-      <c r="AH73">
-        <v>0.0007720500158945728</v>
-      </c>
-      <c r="AI73">
-        <v>0.0001143745450932646</v>
-      </c>
-    </row>
-    <row r="74" spans="1:35">
+    </row>
+    <row r="74" spans="1:33">
       <c r="A74" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B74">
         <v>-479.72357</v>
@@ -11134,16 +10504,10 @@
       <c r="AG74">
         <v>5.687588834217621</v>
       </c>
-      <c r="AH74">
-        <v>0.1643259780516135</v>
-      </c>
-      <c r="AI74">
-        <v>0.02428144991327511</v>
-      </c>
-    </row>
-    <row r="75" spans="1:35">
+    </row>
+    <row r="75" spans="1:33">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B75">
         <v>-479.72357</v>
@@ -11229,16 +10593,10 @@
       <c r="AG75">
         <v>5.687588834217621</v>
       </c>
-      <c r="AH75">
-        <v>0.1643259780516135</v>
-      </c>
-      <c r="AI75">
-        <v>0.02428144991327511</v>
-      </c>
-    </row>
-    <row r="76" spans="1:35">
+    </row>
+    <row r="76" spans="1:33">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -11324,16 +10682,10 @@
       <c r="AG76">
         <v>0</v>
       </c>
-      <c r="AH76">
-        <v>0</v>
-      </c>
-      <c r="AI76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:35">
+    </row>
+    <row r="77" spans="1:33">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B77">
         <v>-479.72357</v>
@@ -11419,16 +10771,10 @@
       <c r="AG77">
         <v>5.687588834217621</v>
       </c>
-      <c r="AH77">
-        <v>0.1643259780516135</v>
-      </c>
-      <c r="AI77">
-        <v>0.02428144991327511</v>
-      </c>
-    </row>
-    <row r="78" spans="1:35">
+    </row>
+    <row r="78" spans="1:33">
       <c r="A78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B78">
         <v>-479.72357</v>
@@ -11514,16 +10860,10 @@
       <c r="AG78">
         <v>5.687588834217621</v>
       </c>
-      <c r="AH78">
-        <v>0.1643259780516135</v>
-      </c>
-      <c r="AI78">
-        <v>0.02428144991327511</v>
-      </c>
-    </row>
-    <row r="79" spans="1:35">
+    </row>
+    <row r="79" spans="1:33">
       <c r="A79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -11609,16 +10949,10 @@
       <c r="AG79">
         <v>0</v>
       </c>
-      <c r="AH79">
-        <v>0</v>
-      </c>
-      <c r="AI79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:35">
+    </row>
+    <row r="80" spans="1:33">
       <c r="A80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B80">
         <v>-479.72357</v>
@@ -11716,16 +11050,10 @@
       <c r="AG80">
         <v>5.687588834217621</v>
       </c>
-      <c r="AH80">
-        <v>0.1643259780516135</v>
-      </c>
-      <c r="AI80">
-        <v>0.02428144991327511</v>
-      </c>
-    </row>
-    <row r="81" spans="1:35">
+    </row>
+    <row r="81" spans="1:33">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B81">
         <v>-479.72357</v>
@@ -11823,16 +11151,10 @@
       <c r="AG81">
         <v>5.687588834217621</v>
       </c>
-      <c r="AH81">
-        <v>0.1643259780516135</v>
-      </c>
-      <c r="AI81">
-        <v>0.02428144991327511</v>
-      </c>
-    </row>
-    <row r="82" spans="1:35">
+    </row>
+    <row r="82" spans="1:33">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B82">
         <v>-479.731146</v>
@@ -11930,16 +11252,10 @@
       <c r="AG82">
         <v>4.429263536895336</v>
       </c>
-      <c r="AH82">
-        <v>0.001047757511405654</v>
-      </c>
-      <c r="AI82">
-        <v>0.0001572384926063548</v>
-      </c>
-    </row>
-    <row r="83" spans="1:35">
+    </row>
+    <row r="83" spans="1:33">
       <c r="A83" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B83">
         <v>-479.731146</v>
@@ -12025,16 +11341,10 @@
       <c r="AG83">
         <v>4.429263536895336</v>
       </c>
-      <c r="AH83">
-        <v>0.001047757511405654</v>
-      </c>
-      <c r="AI83">
-        <v>0.0001572384926063548</v>
-      </c>
-    </row>
-    <row r="84" spans="1:35">
+    </row>
+    <row r="84" spans="1:33">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -12120,16 +11430,10 @@
       <c r="AG84">
         <v>0</v>
       </c>
-      <c r="AH84">
-        <v>0</v>
-      </c>
-      <c r="AI84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:35">
+    </row>
+    <row r="85" spans="1:33">
       <c r="A85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B85">
         <v>-479.731146</v>
@@ -12215,16 +11519,10 @@
       <c r="AG85">
         <v>4.429263536895336</v>
       </c>
-      <c r="AH85">
-        <v>0.001047757511405654</v>
-      </c>
-      <c r="AI85">
-        <v>0.0001572384926063548</v>
-      </c>
-    </row>
-    <row r="86" spans="1:35">
+    </row>
+    <row r="86" spans="1:33">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B86">
         <v>-479.731146</v>
@@ -12310,16 +11608,10 @@
       <c r="AG86">
         <v>4.429263536895336</v>
       </c>
-      <c r="AH86">
-        <v>0.001047757511405654</v>
-      </c>
-      <c r="AI86">
-        <v>0.0001572384926063548</v>
-      </c>
-    </row>
-    <row r="87" spans="1:35">
+    </row>
+    <row r="87" spans="1:33">
       <c r="A87" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -12405,16 +11697,10 @@
       <c r="AG87">
         <v>0</v>
       </c>
-      <c r="AH87">
-        <v>0</v>
-      </c>
-      <c r="AI87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:35">
+    </row>
+    <row r="88" spans="1:33">
       <c r="A88" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B88">
         <v>-479.731146</v>
@@ -12512,16 +11798,10 @@
       <c r="AG88">
         <v>4.429263536895336</v>
       </c>
-      <c r="AH88">
-        <v>0.001047757511405654</v>
-      </c>
-      <c r="AI88">
-        <v>0.0001572384926063548</v>
-      </c>
-    </row>
-    <row r="89" spans="1:35">
+    </row>
+    <row r="89" spans="1:33">
       <c r="A89" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B89">
         <v>-479.731146</v>
@@ -12619,16 +11899,10 @@
       <c r="AG89">
         <v>4.429263536895336</v>
       </c>
-      <c r="AH89">
-        <v>0.001047757511405654</v>
-      </c>
-      <c r="AI89">
-        <v>0.0001572384926063548</v>
-      </c>
-    </row>
-    <row r="90" spans="1:35">
+    </row>
+    <row r="90" spans="1:33">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B90">
         <v>-479.723489</v>
@@ -12726,16 +12000,10 @@
       <c r="AG90">
         <v>5.663583853863676</v>
       </c>
-      <c r="AH90">
-        <v>0.0001701811041882851</v>
-      </c>
-      <c r="AI90">
-        <v>2.523681076766826E-05</v>
-      </c>
-    </row>
-    <row r="91" spans="1:35">
+    </row>
+    <row r="91" spans="1:33">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B91">
         <v>-479.723489</v>
@@ -12821,16 +12089,10 @@
       <c r="AG91">
         <v>5.663583853863676</v>
       </c>
-      <c r="AH91">
-        <v>0.0001701811041882851</v>
-      </c>
-      <c r="AI91">
-        <v>2.523681076766826E-05</v>
-      </c>
-    </row>
-    <row r="92" spans="1:35">
+    </row>
+    <row r="92" spans="1:33">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -12916,16 +12178,10 @@
       <c r="AG92">
         <v>0</v>
       </c>
-      <c r="AH92">
-        <v>0</v>
-      </c>
-      <c r="AI92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:35">
+    </row>
+    <row r="93" spans="1:33">
       <c r="A93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B93">
         <v>-479.723489</v>
@@ -13011,16 +12267,10 @@
       <c r="AG93">
         <v>5.663583853863676</v>
       </c>
-      <c r="AH93">
-        <v>0.0001701811041882851</v>
-      </c>
-      <c r="AI93">
-        <v>2.523681076766826E-05</v>
-      </c>
-    </row>
-    <row r="94" spans="1:35">
+    </row>
+    <row r="94" spans="1:33">
       <c r="A94" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B94">
         <v>-479.723489</v>
@@ -13106,16 +12356,10 @@
       <c r="AG94">
         <v>5.663583853863676</v>
       </c>
-      <c r="AH94">
-        <v>0.0001701811041882851</v>
-      </c>
-      <c r="AI94">
-        <v>2.523681076766826E-05</v>
-      </c>
-    </row>
-    <row r="95" spans="1:35">
+    </row>
+    <row r="95" spans="1:33">
       <c r="A95" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -13201,16 +12445,10 @@
       <c r="AG95">
         <v>0</v>
       </c>
-      <c r="AH95">
-        <v>0</v>
-      </c>
-      <c r="AI95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:35">
+    </row>
+    <row r="96" spans="1:33">
       <c r="A96" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B96">
         <v>-479.723489</v>
@@ -13308,16 +12546,10 @@
       <c r="AG96">
         <v>5.663583853863676</v>
       </c>
-      <c r="AH96">
-        <v>0.0001701811041882851</v>
-      </c>
-      <c r="AI96">
-        <v>2.523681076766826E-05</v>
-      </c>
-    </row>
-    <row r="97" spans="1:35">
+    </row>
+    <row r="97" spans="1:33">
       <c r="A97" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B97">
         <v>-479.723489</v>
@@ -13415,16 +12647,10 @@
       <c r="AG97">
         <v>5.663583853863676</v>
       </c>
-      <c r="AH97">
-        <v>0.0001701811041882851</v>
-      </c>
-      <c r="AI97">
-        <v>2.523681076766826E-05</v>
-      </c>
-    </row>
-    <row r="98" spans="1:35">
+    </row>
+    <row r="98" spans="1:33">
       <c r="A98" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B98">
         <v>-286.850511</v>
@@ -13522,16 +12748,10 @@
       <c r="AG98">
         <v>3.317542094093886</v>
       </c>
-      <c r="AH98">
-        <v>0.001255163548363714</v>
-      </c>
-      <c r="AI98">
-        <v>0.0001889526075853006</v>
-      </c>
-    </row>
-    <row r="99" spans="1:35">
+    </row>
+    <row r="99" spans="1:33">
       <c r="A99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B99">
         <v>-286.850511</v>
@@ -13617,16 +12837,10 @@
       <c r="AG99">
         <v>3.317542094093886</v>
       </c>
-      <c r="AH99">
-        <v>0.001255163548363714</v>
-      </c>
-      <c r="AI99">
-        <v>0.0001889526075853006</v>
-      </c>
-    </row>
-    <row r="100" spans="1:35">
+    </row>
+    <row r="100" spans="1:33">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -13712,16 +12926,10 @@
       <c r="AG100">
         <v>0</v>
       </c>
-      <c r="AH100">
-        <v>0</v>
-      </c>
-      <c r="AI100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:35">
+    </row>
+    <row r="101" spans="1:33">
       <c r="A101" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B101">
         <v>-286.850511</v>
@@ -13807,16 +13015,10 @@
       <c r="AG101">
         <v>3.317542094093886</v>
       </c>
-      <c r="AH101">
-        <v>0.001255163548363714</v>
-      </c>
-      <c r="AI101">
-        <v>0.0001889526075853006</v>
-      </c>
-    </row>
-    <row r="102" spans="1:35">
+    </row>
+    <row r="102" spans="1:33">
       <c r="A102" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B102">
         <v>-286.850511</v>
@@ -13902,16 +13104,10 @@
       <c r="AG102">
         <v>3.317542094093886</v>
       </c>
-      <c r="AH102">
-        <v>0.001255163548363714</v>
-      </c>
-      <c r="AI102">
-        <v>0.0001889526075853006</v>
-      </c>
-    </row>
-    <row r="103" spans="1:35">
+    </row>
+    <row r="103" spans="1:33">
       <c r="A103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -13997,16 +13193,10 @@
       <c r="AG103">
         <v>0</v>
       </c>
-      <c r="AH103">
-        <v>0</v>
-      </c>
-      <c r="AI103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:35">
+    </row>
+    <row r="104" spans="1:33">
       <c r="A104" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B104">
         <v>-286.850511</v>
@@ -14104,16 +13294,10 @@
       <c r="AG104">
         <v>3.317542094093886</v>
       </c>
-      <c r="AH104">
-        <v>0.001255163548363714</v>
-      </c>
-      <c r="AI104">
-        <v>0.0001889526075853006</v>
-      </c>
-    </row>
-    <row r="105" spans="1:35">
+    </row>
+    <row r="105" spans="1:33">
       <c r="A105" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B105">
         <v>-286.850511</v>
@@ -14211,16 +13395,10 @@
       <c r="AG105">
         <v>3.317542094093886</v>
       </c>
-      <c r="AH105">
-        <v>0.001255163548363714</v>
-      </c>
-      <c r="AI105">
-        <v>0.0001889526075853006</v>
-      </c>
-    </row>
-    <row r="106" spans="1:35">
+    </row>
+    <row r="106" spans="1:33">
       <c r="A106" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B106">
         <v>-286.849517</v>
@@ -14318,16 +13496,10 @@
       <c r="AG106">
         <v>3.264481630609611</v>
       </c>
-      <c r="AH106">
-        <v>0.001885673417566543</v>
-      </c>
-      <c r="AI106">
-        <v>0.0002837454957284135</v>
-      </c>
-    </row>
-    <row r="107" spans="1:35">
+    </row>
+    <row r="107" spans="1:33">
       <c r="A107" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B107">
         <v>-286.849517</v>
@@ -14413,16 +13585,10 @@
       <c r="AG107">
         <v>3.264481630609611</v>
       </c>
-      <c r="AH107">
-        <v>0.001885673417566543</v>
-      </c>
-      <c r="AI107">
-        <v>0.0002837454957284135</v>
-      </c>
-    </row>
-    <row r="108" spans="1:35">
+    </row>
+    <row r="108" spans="1:33">
       <c r="A108" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -14508,16 +13674,10 @@
       <c r="AG108">
         <v>0</v>
       </c>
-      <c r="AH108">
-        <v>0</v>
-      </c>
-      <c r="AI108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:35">
+    </row>
+    <row r="109" spans="1:33">
       <c r="A109" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B109">
         <v>-286.849517</v>
@@ -14603,16 +13763,10 @@
       <c r="AG109">
         <v>3.264481630609611</v>
       </c>
-      <c r="AH109">
-        <v>0.001885673417566543</v>
-      </c>
-      <c r="AI109">
-        <v>0.0002837454957284135</v>
-      </c>
-    </row>
-    <row r="110" spans="1:35">
+    </row>
+    <row r="110" spans="1:33">
       <c r="A110" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B110">
         <v>-286.849517</v>
@@ -14698,16 +13852,10 @@
       <c r="AG110">
         <v>3.264481630609611</v>
       </c>
-      <c r="AH110">
-        <v>0.001885673417566543</v>
-      </c>
-      <c r="AI110">
-        <v>0.0002837454957284135</v>
-      </c>
-    </row>
-    <row r="111" spans="1:35">
+    </row>
+    <row r="111" spans="1:33">
       <c r="A111" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -14793,16 +13941,10 @@
       <c r="AG111">
         <v>0</v>
       </c>
-      <c r="AH111">
-        <v>0</v>
-      </c>
-      <c r="AI111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:35">
+    </row>
+    <row r="112" spans="1:33">
       <c r="A112" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B112">
         <v>-286.849517</v>
@@ -14900,16 +14042,10 @@
       <c r="AG112">
         <v>3.264481630609611</v>
       </c>
-      <c r="AH112">
-        <v>0.001885673417566543</v>
-      </c>
-      <c r="AI112">
-        <v>0.0002837454957284135</v>
-      </c>
-    </row>
-    <row r="113" spans="1:35">
+    </row>
+    <row r="113" spans="1:33">
       <c r="A113" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B113">
         <v>-286.849517</v>
@@ -15007,16 +14143,10 @@
       <c r="AG113">
         <v>3.264481630609611</v>
       </c>
-      <c r="AH113">
-        <v>0.001885673417566543</v>
-      </c>
-      <c r="AI113">
-        <v>0.0002837454957284135</v>
-      </c>
-    </row>
-    <row r="114" spans="1:35">
+    </row>
+    <row r="114" spans="1:33">
       <c r="A114" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B114">
         <v>-286.849182</v>
@@ -15114,16 +14244,10 @@
       <c r="AG114">
         <v>3.264188925414438</v>
       </c>
-      <c r="AH114">
-        <v>0.00646793103093299</v>
-      </c>
-      <c r="AI114">
-        <v>0.0009732240900725599</v>
-      </c>
-    </row>
-    <row r="115" spans="1:35">
+    </row>
+    <row r="115" spans="1:33">
       <c r="A115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B115">
         <v>-286.849182</v>
@@ -15209,16 +14333,10 @@
       <c r="AG115">
         <v>3.264188925414438</v>
       </c>
-      <c r="AH115">
-        <v>0.00646793103093299</v>
-      </c>
-      <c r="AI115">
-        <v>0.0009732240900725599</v>
-      </c>
-    </row>
-    <row r="116" spans="1:35">
+    </row>
+    <row r="116" spans="1:33">
       <c r="A116" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -15304,16 +14422,10 @@
       <c r="AG116">
         <v>0</v>
       </c>
-      <c r="AH116">
-        <v>0</v>
-      </c>
-      <c r="AI116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:35">
+    </row>
+    <row r="117" spans="1:33">
       <c r="A117" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B117">
         <v>-286.849182</v>
@@ -15399,16 +14511,10 @@
       <c r="AG117">
         <v>3.264188925414438</v>
       </c>
-      <c r="AH117">
-        <v>0.00646793103093299</v>
-      </c>
-      <c r="AI117">
-        <v>0.0009732240900725599</v>
-      </c>
-    </row>
-    <row r="118" spans="1:35">
+    </row>
+    <row r="118" spans="1:33">
       <c r="A118" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B118">
         <v>-286.849182</v>
@@ -15494,16 +14600,10 @@
       <c r="AG118">
         <v>3.264188925414438</v>
       </c>
-      <c r="AH118">
-        <v>0.00646793103093299</v>
-      </c>
-      <c r="AI118">
-        <v>0.0009732240900725599</v>
-      </c>
-    </row>
-    <row r="119" spans="1:35">
+    </row>
+    <row r="119" spans="1:33">
       <c r="A119" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -15589,16 +14689,10 @@
       <c r="AG119">
         <v>0</v>
       </c>
-      <c r="AH119">
-        <v>0</v>
-      </c>
-      <c r="AI119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:35">
+    </row>
+    <row r="120" spans="1:33">
       <c r="A120" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B120">
         <v>-286.849182</v>
@@ -15696,16 +14790,10 @@
       <c r="AG120">
         <v>3.264188925414438</v>
       </c>
-      <c r="AH120">
-        <v>0.00646793103093299</v>
-      </c>
-      <c r="AI120">
-        <v>0.0009732240900725599</v>
-      </c>
-    </row>
-    <row r="121" spans="1:35">
+    </row>
+    <row r="121" spans="1:33">
       <c r="A121" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B121">
         <v>-286.849182</v>
@@ -15803,16 +14891,10 @@
       <c r="AG121">
         <v>3.264188925414438</v>
       </c>
-      <c r="AH121">
-        <v>0.00646793103093299</v>
-      </c>
-      <c r="AI121">
-        <v>0.0009732240900725599</v>
-      </c>
-    </row>
-    <row r="122" spans="1:35">
+    </row>
+    <row r="122" spans="1:33">
       <c r="A122" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B122">
         <v>-326.138475</v>
@@ -15910,16 +14992,10 @@
       <c r="AG122">
         <v>3.276297649967303</v>
       </c>
-      <c r="AH122">
-        <v>0</v>
-      </c>
-      <c r="AI122">
-        <v>1.171549609404351E-11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:35">
+    </row>
+    <row r="123" spans="1:33">
       <c r="A123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B123">
         <v>-326.138475</v>
@@ -16005,16 +15081,10 @@
       <c r="AG123">
         <v>3.276297649967303</v>
       </c>
-      <c r="AH123">
-        <v>0</v>
-      </c>
-      <c r="AI123">
-        <v>1.171549609404351E-11</v>
-      </c>
-    </row>
-    <row r="124" spans="1:35">
+    </row>
+    <row r="124" spans="1:33">
       <c r="A124" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -16100,16 +15170,10 @@
       <c r="AG124">
         <v>0</v>
       </c>
-      <c r="AH124">
-        <v>0</v>
-      </c>
-      <c r="AI124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:35">
+    </row>
+    <row r="125" spans="1:33">
       <c r="A125" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B125">
         <v>-326.138475</v>
@@ -16195,16 +15259,10 @@
       <c r="AG125">
         <v>3.276297649967303</v>
       </c>
-      <c r="AH125">
-        <v>0</v>
-      </c>
-      <c r="AI125">
-        <v>1.171549609404351E-11</v>
-      </c>
-    </row>
-    <row r="126" spans="1:35">
+    </row>
+    <row r="126" spans="1:33">
       <c r="A126" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B126">
         <v>-326.138475</v>
@@ -16290,16 +15348,10 @@
       <c r="AG126">
         <v>3.276297649967303</v>
       </c>
-      <c r="AH126">
-        <v>0</v>
-      </c>
-      <c r="AI126">
-        <v>1.171549609404351E-11</v>
-      </c>
-    </row>
-    <row r="127" spans="1:35">
+    </row>
+    <row r="127" spans="1:33">
       <c r="A127" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -16385,16 +15437,10 @@
       <c r="AG127">
         <v>0</v>
       </c>
-      <c r="AH127">
-        <v>0</v>
-      </c>
-      <c r="AI127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:35">
+    </row>
+    <row r="128" spans="1:33">
       <c r="A128" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B128">
         <v>-326.138475</v>
@@ -16492,16 +15538,10 @@
       <c r="AG128">
         <v>3.276297649967303</v>
       </c>
-      <c r="AH128">
-        <v>0</v>
-      </c>
-      <c r="AI128">
-        <v>1.171549609404351E-11</v>
-      </c>
-    </row>
-    <row r="129" spans="1:35">
+    </row>
+    <row r="129" spans="1:33">
       <c r="A129" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B129">
         <v>-326.138475</v>
@@ -16599,16 +15639,10 @@
       <c r="AG129">
         <v>3.276297649967303</v>
       </c>
-      <c r="AH129">
-        <v>0</v>
-      </c>
-      <c r="AI129">
-        <v>1.171549609404351E-11</v>
-      </c>
-    </row>
-    <row r="130" spans="1:35">
+    </row>
+    <row r="130" spans="1:33">
       <c r="A130" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B130">
         <v>-326.136153</v>
@@ -16706,16 +15740,10 @@
       <c r="AG130">
         <v>3.264577882447845</v>
       </c>
-      <c r="AH130">
-        <v>0.003123538101525899</v>
-      </c>
-      <c r="AI130">
-        <v>0.0004691223045483085</v>
-      </c>
-    </row>
-    <row r="131" spans="1:35">
+    </row>
+    <row r="131" spans="1:33">
       <c r="A131" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B131">
         <v>-326.136153</v>
@@ -16801,16 +15829,10 @@
       <c r="AG131">
         <v>3.264577882447845</v>
       </c>
-      <c r="AH131">
-        <v>0.003123538101525899</v>
-      </c>
-      <c r="AI131">
-        <v>0.0004691223045483085</v>
-      </c>
-    </row>
-    <row r="132" spans="1:35">
+    </row>
+    <row r="132" spans="1:33">
       <c r="A132" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -16896,16 +15918,10 @@
       <c r="AG132">
         <v>0</v>
       </c>
-      <c r="AH132">
-        <v>0</v>
-      </c>
-      <c r="AI132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:35">
+    </row>
+    <row r="133" spans="1:33">
       <c r="A133" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B133">
         <v>-326.136153</v>
@@ -16991,16 +16007,10 @@
       <c r="AG133">
         <v>3.264577882447845</v>
       </c>
-      <c r="AH133">
-        <v>0.003123538101525899</v>
-      </c>
-      <c r="AI133">
-        <v>0.0004691223045483085</v>
-      </c>
-    </row>
-    <row r="134" spans="1:35">
+    </row>
+    <row r="134" spans="1:33">
       <c r="A134" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B134">
         <v>-326.136153</v>
@@ -17086,16 +16096,10 @@
       <c r="AG134">
         <v>3.264577882447845</v>
       </c>
-      <c r="AH134">
-        <v>0.003123538101525899</v>
-      </c>
-      <c r="AI134">
-        <v>0.0004691223045483085</v>
-      </c>
-    </row>
-    <row r="135" spans="1:35">
+    </row>
+    <row r="135" spans="1:33">
       <c r="A135" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -17181,16 +16185,10 @@
       <c r="AG135">
         <v>0</v>
       </c>
-      <c r="AH135">
-        <v>0</v>
-      </c>
-      <c r="AI135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:35">
+    </row>
+    <row r="136" spans="1:33">
       <c r="A136" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B136">
         <v>-326.136153</v>
@@ -17288,16 +16286,10 @@
       <c r="AG136">
         <v>3.264577882447845</v>
       </c>
-      <c r="AH136">
-        <v>0.003123538101525899</v>
-      </c>
-      <c r="AI136">
-        <v>0.0004691223045483085</v>
-      </c>
-    </row>
-    <row r="137" spans="1:35">
+    </row>
+    <row r="137" spans="1:33">
       <c r="A137" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B137">
         <v>-326.136153</v>
@@ -17395,16 +16387,10 @@
       <c r="AG137">
         <v>3.264577882447845</v>
       </c>
-      <c r="AH137">
-        <v>0.003123538101525899</v>
-      </c>
-      <c r="AI137">
-        <v>0.0004691223045483085</v>
-      </c>
-    </row>
-    <row r="138" spans="1:35">
+    </row>
+    <row r="138" spans="1:33">
       <c r="A138" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B138">
         <v>-326.136464</v>
@@ -17502,16 +16488,10 @@
       <c r="AG138">
         <v>3.265828871770875</v>
       </c>
-      <c r="AH138">
-        <v>0.0004179460010828461</v>
-      </c>
-      <c r="AI138">
-        <v>6.276241943395776E-05</v>
-      </c>
-    </row>
-    <row r="139" spans="1:35">
+    </row>
+    <row r="139" spans="1:33">
       <c r="A139" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B139">
         <v>-326.136464</v>
@@ -17597,16 +16577,10 @@
       <c r="AG139">
         <v>3.265828871770875</v>
       </c>
-      <c r="AH139">
-        <v>0.0004179460010828461</v>
-      </c>
-      <c r="AI139">
-        <v>6.276241943395776E-05</v>
-      </c>
-    </row>
-    <row r="140" spans="1:35">
+    </row>
+    <row r="140" spans="1:33">
       <c r="A140" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -17692,16 +16666,10 @@
       <c r="AG140">
         <v>0</v>
       </c>
-      <c r="AH140">
-        <v>0</v>
-      </c>
-      <c r="AI140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:35">
+    </row>
+    <row r="141" spans="1:33">
       <c r="A141" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B141">
         <v>-326.136464</v>
@@ -17787,16 +16755,10 @@
       <c r="AG141">
         <v>3.265828871770875</v>
       </c>
-      <c r="AH141">
-        <v>0.0004179460010828461</v>
-      </c>
-      <c r="AI141">
-        <v>6.276241943395776E-05</v>
-      </c>
-    </row>
-    <row r="142" spans="1:35">
+    </row>
+    <row r="142" spans="1:33">
       <c r="A142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B142">
         <v>-326.136464</v>
@@ -17882,16 +16844,10 @@
       <c r="AG142">
         <v>3.265828871770875</v>
       </c>
-      <c r="AH142">
-        <v>0.0004179460010828461</v>
-      </c>
-      <c r="AI142">
-        <v>6.276241943395776E-05</v>
-      </c>
-    </row>
-    <row r="143" spans="1:35">
+    </row>
+    <row r="143" spans="1:33">
       <c r="A143" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -17977,16 +16933,10 @@
       <c r="AG143">
         <v>0</v>
       </c>
-      <c r="AH143">
-        <v>0</v>
-      </c>
-      <c r="AI143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:35">
+    </row>
+    <row r="144" spans="1:33">
       <c r="A144" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B144">
         <v>-326.136464</v>
@@ -18084,16 +17034,10 @@
       <c r="AG144">
         <v>3.265828871770875</v>
       </c>
-      <c r="AH144">
-        <v>0.0004179460010828461</v>
-      </c>
-      <c r="AI144">
-        <v>6.276241943395776E-05</v>
-      </c>
-    </row>
-    <row r="145" spans="1:35">
+    </row>
+    <row r="145" spans="1:33">
       <c r="A145" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B145">
         <v>-326.136464</v>
@@ -18190,12 +17134,6 @@
       </c>
       <c r="AG145">
         <v>3.265828871770875</v>
-      </c>
-      <c r="AH145">
-        <v>0.0004179460010828461</v>
-      </c>
-      <c r="AI145">
-        <v>6.276241943395776E-05</v>
       </c>
     </row>
   </sheetData>
@@ -18205,7 +17143,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18232,13 +17170,11 @@
     <col min="24" max="25" width="19.7109375" customWidth="1"/>
     <col min="26" max="26" width="33.7109375" customWidth="1"/>
     <col min="27" max="28" width="34.7109375" customWidth="1"/>
-    <col min="29" max="29" width="36.7109375" customWidth="1"/>
-    <col min="30" max="30" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -18262,75 +17198,69 @@
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B2">
         <v>-440.561372</v>
@@ -18413,16 +17343,10 @@
       <c r="AB2">
         <v>4.634241735410031</v>
       </c>
-      <c r="AC2">
-        <v>0.003384712563802958</v>
-      </c>
-      <c r="AD2">
-        <v>0.0005095253390418424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B3">
         <v>-440.56109</v>
@@ -18505,16 +17429,10 @@
       <c r="AB3">
         <v>4.32023067308818</v>
       </c>
-      <c r="AC3">
-        <v>0.003770977278349009</v>
-      </c>
-      <c r="AD3">
-        <v>0.0005674069619305055</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>-440.560235</v>
@@ -18597,16 +17515,10 @@
       <c r="AB4">
         <v>5.719376375537507</v>
       </c>
-      <c r="AC4">
-        <v>0.001437999498789009</v>
-      </c>
-      <c r="AD4">
-        <v>0.0002161625401717892</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B5">
         <v>-440.559301</v>
@@ -18689,16 +17601,10 @@
       <c r="AB5">
         <v>5.73084897754546</v>
       </c>
-      <c r="AC5">
-        <v>0.001690488067145327</v>
-      </c>
-      <c r="AD5">
-        <v>0.000254140451796319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B6">
         <v>-440.560694</v>
@@ -18781,16 +17687,10 @@
       <c r="AB6">
         <v>4.388775210739726</v>
       </c>
-      <c r="AC6">
-        <v>0.0005157139913190157</v>
-      </c>
-      <c r="AD6">
-        <v>7.763637349886503E-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>-440.559622</v>
@@ -18873,16 +17773,10 @@
       <c r="AB7">
         <v>5.713309756808888</v>
       </c>
-      <c r="AC7">
-        <v>0.001028030833864126</v>
-      </c>
-      <c r="AD7">
-        <v>0.0001545261989087327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <v>-479.875564</v>
@@ -18965,16 +17859,10 @@
       <c r="AB8">
         <v>4.555282912560074</v>
       </c>
-      <c r="AC8">
-        <v>0.001691422680309833</v>
-      </c>
-      <c r="AD8">
-        <v>0.0002540081573674681</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B9">
         <v>-479.873294</v>
@@ -19057,16 +17945,10 @@
       <c r="AB9">
         <v>4.283119753190393</v>
       </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>9.149531403551907E-11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B10">
         <v>-479.867345</v>
@@ -19149,16 +18031,10 @@
       <c r="AB10">
         <v>5.671459708322152</v>
       </c>
-      <c r="AC10">
-        <v>0.0007720500158945728</v>
-      </c>
-      <c r="AD10">
-        <v>0.0001143745450932646</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <v>-479.866207</v>
@@ -19241,16 +18117,10 @@
       <c r="AB11">
         <v>5.687588834217621</v>
       </c>
-      <c r="AC11">
-        <v>0.1643259780516135</v>
-      </c>
-      <c r="AD11">
-        <v>0.02428144991327511</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+    </row>
+    <row r="12" spans="1:28">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B12">
         <v>-479.873734</v>
@@ -19333,16 +18203,10 @@
       <c r="AB12">
         <v>4.429263536895336</v>
       </c>
-      <c r="AC12">
-        <v>0.001047757511405654</v>
-      </c>
-      <c r="AD12">
-        <v>0.0001572384926063548</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+    </row>
+    <row r="13" spans="1:28">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B13">
         <v>-479.866439</v>
@@ -19425,16 +18289,10 @@
       <c r="AB13">
         <v>5.663583853863676</v>
       </c>
-      <c r="AC13">
-        <v>0.0001701811041882851</v>
-      </c>
-      <c r="AD13">
-        <v>2.523681076766826E-05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+    </row>
+    <row r="14" spans="1:28">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B14">
         <v>-286.923974</v>
@@ -19517,16 +18375,10 @@
       <c r="AB14">
         <v>3.317542094093886</v>
       </c>
-      <c r="AC14">
-        <v>0.001255163548363714</v>
-      </c>
-      <c r="AD14">
-        <v>0.0001889526075853006</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+    </row>
+    <row r="15" spans="1:28">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B15">
         <v>-286.922899</v>
@@ -19609,16 +18461,10 @@
       <c r="AB15">
         <v>3.264481630609611</v>
       </c>
-      <c r="AC15">
-        <v>0.001885673417566543</v>
-      </c>
-      <c r="AD15">
-        <v>0.0002837454957284135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+    </row>
+    <row r="16" spans="1:28">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B16">
         <v>-286.922711</v>
@@ -19701,16 +18547,10 @@
       <c r="AB16">
         <v>3.264188925414438</v>
       </c>
-      <c r="AC16">
-        <v>0.00646793103093299</v>
-      </c>
-      <c r="AD16">
-        <v>0.0009732240900725599</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30">
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B17">
         <v>-326.237649</v>
@@ -19793,16 +18633,10 @@
       <c r="AB17">
         <v>3.276297649967303</v>
       </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>1.171549609404351E-11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B18">
         <v>-326.234716</v>
@@ -19885,16 +18719,10 @@
       <c r="AB18">
         <v>3.264577882447845</v>
       </c>
-      <c r="AC18">
-        <v>0.003123538101525899</v>
-      </c>
-      <c r="AD18">
-        <v>0.0004691223045483085</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30">
+    </row>
+    <row r="19" spans="1:28">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B19">
         <v>-326.235067</v>
@@ -19976,12 +18804,6 @@
       </c>
       <c r="AB19">
         <v>3.265828871770875</v>
-      </c>
-      <c r="AC19">
-        <v>0.0004179460010828461</v>
-      </c>
-      <c r="AD19">
-        <v>6.276241943395776E-05</v>
       </c>
     </row>
   </sheetData>
@@ -19991,7 +18813,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI81"/>
+  <dimension ref="A1:AG81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -20023,11 +18845,9 @@
     <col min="28" max="30" width="17.7109375" customWidth="1"/>
     <col min="31" max="31" width="27.7109375" customWidth="1"/>
     <col min="32" max="33" width="28.7109375" customWidth="1"/>
-    <col min="34" max="34" width="30.7109375" customWidth="1"/>
-    <col min="35" max="35" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -20127,16 +18947,10 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2">
         <v>-456.501537</v>
@@ -20234,16 +19048,10 @@
       <c r="AG2">
         <v>4.413689539907482</v>
       </c>
-      <c r="AH2">
-        <v>0.001162478920763459</v>
-      </c>
-      <c r="AI2">
-        <v>0.0001750313116540436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>-456.501537</v>
@@ -20329,16 +19137,10 @@
       <c r="AG3">
         <v>4.413689539907482</v>
       </c>
-      <c r="AH3">
-        <v>0.001162478920763459</v>
-      </c>
-      <c r="AI3">
-        <v>0.0001750313116540436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -20424,16 +19226,10 @@
       <c r="AG4">
         <v>0</v>
       </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>-456.501537</v>
@@ -20519,16 +19315,10 @@
       <c r="AG5">
         <v>4.413689539907482</v>
       </c>
-      <c r="AH5">
-        <v>0.001162478920763459</v>
-      </c>
-      <c r="AI5">
-        <v>0.0001750313116540436</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>-456.501537</v>
@@ -20614,16 +19404,10 @@
       <c r="AG6">
         <v>4.413689539907482</v>
       </c>
-      <c r="AH6">
-        <v>0.001162478920763459</v>
-      </c>
-      <c r="AI6">
-        <v>0.0001750313116540436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -20709,16 +19493,10 @@
       <c r="AG7">
         <v>0</v>
       </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>-456.501537</v>
@@ -20816,16 +19594,10 @@
       <c r="AG8">
         <v>4.413689539907482</v>
       </c>
-      <c r="AH8">
-        <v>0.001162478920763459</v>
-      </c>
-      <c r="AI8">
-        <v>0.0001750313116540436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>-456.501537</v>
@@ -20923,16 +19695,10 @@
       <c r="AG9">
         <v>4.413689539907482</v>
       </c>
-      <c r="AH9">
-        <v>0.001162478920763459</v>
-      </c>
-      <c r="AI9">
-        <v>0.0001750313116540436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35">
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B10">
         <v>-456.483813</v>
@@ -21030,16 +19796,10 @@
       <c r="AG10">
         <v>5.717709155491042</v>
       </c>
-      <c r="AH10">
-        <v>0.9798182362187645</v>
-      </c>
-      <c r="AI10">
-        <v>0.1471382082192786</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35">
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>-456.483813</v>
@@ -21125,16 +19885,10 @@
       <c r="AG11">
         <v>5.717709155491042</v>
       </c>
-      <c r="AH11">
-        <v>0.9798182362187645</v>
-      </c>
-      <c r="AI11">
-        <v>0.1471382082192786</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35">
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -21220,16 +19974,10 @@
       <c r="AG12">
         <v>0</v>
       </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35">
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>-456.483813</v>
@@ -21315,16 +20063,10 @@
       <c r="AG13">
         <v>5.717709155491042</v>
       </c>
-      <c r="AH13">
-        <v>0.9798182362187645</v>
-      </c>
-      <c r="AI13">
-        <v>0.1471382082192786</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35">
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>-456.483813</v>
@@ -21410,16 +20152,10 @@
       <c r="AG14">
         <v>5.717709155491042</v>
       </c>
-      <c r="AH14">
-        <v>0.9798182362187645</v>
-      </c>
-      <c r="AI14">
-        <v>0.1471382082192786</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35">
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -21505,16 +20241,10 @@
       <c r="AG15">
         <v>0</v>
       </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35">
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>-456.483813</v>
@@ -21612,16 +20342,10 @@
       <c r="AG16">
         <v>5.717709155491042</v>
       </c>
-      <c r="AH16">
-        <v>0.9798182362187645</v>
-      </c>
-      <c r="AI16">
-        <v>0.1471382082192786</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35">
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>-456.483813</v>
@@ -21719,16 +20443,10 @@
       <c r="AG17">
         <v>5.717709155491042</v>
       </c>
-      <c r="AH17">
-        <v>0.9798182362187645</v>
-      </c>
-      <c r="AI17">
-        <v>0.1471382082192786</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35">
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B18">
         <v>-495.790562</v>
@@ -21826,16 +20544,10 @@
       <c r="AG18">
         <v>4.376254323248389</v>
       </c>
-      <c r="AH18">
-        <v>0.001027951456986088</v>
-      </c>
-      <c r="AI18">
-        <v>0.0001542465140779137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35">
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>-495.790562</v>
@@ -21921,16 +20633,10 @@
       <c r="AG19">
         <v>4.376254323248389</v>
       </c>
-      <c r="AH19">
-        <v>0.001027951456986088</v>
-      </c>
-      <c r="AI19">
-        <v>0.0001542465140779137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35">
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -22016,16 +20722,10 @@
       <c r="AG20">
         <v>0</v>
       </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35">
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>-495.790562</v>
@@ -22111,16 +20811,10 @@
       <c r="AG21">
         <v>4.376254323248389</v>
       </c>
-      <c r="AH21">
-        <v>0.001027951456986088</v>
-      </c>
-      <c r="AI21">
-        <v>0.0001542465140779137</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35">
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>-495.790562</v>
@@ -22206,16 +20900,10 @@
       <c r="AG22">
         <v>4.376254323248389</v>
       </c>
-      <c r="AH22">
-        <v>0.001027951456986088</v>
-      </c>
-      <c r="AI22">
-        <v>0.0001542465140779137</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35">
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -22301,16 +20989,10 @@
       <c r="AG23">
         <v>0</v>
       </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35">
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>-495.790562</v>
@@ -22408,16 +21090,10 @@
       <c r="AG24">
         <v>4.376254323248389</v>
       </c>
-      <c r="AH24">
-        <v>0.001027951456986088</v>
-      </c>
-      <c r="AI24">
-        <v>0.0001542465140779137</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35">
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>-495.790562</v>
@@ -22515,16 +21191,10 @@
       <c r="AG25">
         <v>4.376254323248389</v>
       </c>
-      <c r="AH25">
-        <v>0.001027951456986088</v>
-      </c>
-      <c r="AI25">
-        <v>0.0001542465140779137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35">
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B26">
         <v>-495.783687</v>
@@ -22622,16 +21292,10 @@
       <c r="AG26">
         <v>5.662686495953656</v>
       </c>
-      <c r="AH26">
-        <v>0.0003095146100446279</v>
-      </c>
-      <c r="AI26">
-        <v>4.582803147754092E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35">
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>-495.783687</v>
@@ -22717,16 +21381,10 @@
       <c r="AG27">
         <v>5.662686495953656</v>
       </c>
-      <c r="AH27">
-        <v>0.0003095146100446279</v>
-      </c>
-      <c r="AI27">
-        <v>4.582803147754092E-05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35">
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -22812,16 +21470,10 @@
       <c r="AG28">
         <v>0</v>
       </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35">
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>-495.783687</v>
@@ -22907,16 +21559,10 @@
       <c r="AG29">
         <v>5.662686495953656</v>
       </c>
-      <c r="AH29">
-        <v>0.0003095146100446279</v>
-      </c>
-      <c r="AI29">
-        <v>4.582803147754092E-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35">
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>-495.783687</v>
@@ -23002,16 +21648,10 @@
       <c r="AG30">
         <v>5.662686495953656</v>
       </c>
-      <c r="AH30">
-        <v>0.0003095146100446279</v>
-      </c>
-      <c r="AI30">
-        <v>4.582803147754092E-05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35">
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -23097,16 +21737,10 @@
       <c r="AG31">
         <v>0</v>
       </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35">
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>-495.783687</v>
@@ -23204,16 +21838,10 @@
       <c r="AG32">
         <v>5.662686495953656</v>
       </c>
-      <c r="AH32">
-        <v>0.0003095146100446279</v>
-      </c>
-      <c r="AI32">
-        <v>4.582803147754092E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35">
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>-495.783687</v>
@@ -23311,16 +21939,10 @@
       <c r="AG33">
         <v>5.662686495953656</v>
       </c>
-      <c r="AH33">
-        <v>0.0003095146100446279</v>
-      </c>
-      <c r="AI33">
-        <v>4.582803147754092E-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35">
+    </row>
+    <row r="34" spans="1:33">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B34">
         <v>-302.906967</v>
@@ -23418,16 +22040,10 @@
       <c r="AG34">
         <v>3.254749701428357</v>
       </c>
-      <c r="AH34">
-        <v>0.0001889254756616594</v>
-      </c>
-      <c r="AI34">
-        <v>2.844557183823626E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35">
+    </row>
+    <row r="35" spans="1:33">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>-302.906967</v>
@@ -23513,16 +22129,10 @@
       <c r="AG35">
         <v>3.254749701428357</v>
       </c>
-      <c r="AH35">
-        <v>0.0001889254756616594</v>
-      </c>
-      <c r="AI35">
-        <v>2.844557183823626E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35">
+    </row>
+    <row r="36" spans="1:33">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -23608,16 +22218,10 @@
       <c r="AG36">
         <v>0</v>
       </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35">
+    </row>
+    <row r="37" spans="1:33">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>-302.906967</v>
@@ -23703,16 +22307,10 @@
       <c r="AG37">
         <v>3.254749701428357</v>
       </c>
-      <c r="AH37">
-        <v>0.0001889254756616594</v>
-      </c>
-      <c r="AI37">
-        <v>2.844557183823626E-05</v>
-      </c>
-    </row>
-    <row r="38" spans="1:35">
+    </row>
+    <row r="38" spans="1:33">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>-302.906967</v>
@@ -23798,16 +22396,10 @@
       <c r="AG38">
         <v>3.254749701428357</v>
       </c>
-      <c r="AH38">
-        <v>0.0001889254756616594</v>
-      </c>
-      <c r="AI38">
-        <v>2.844557183823626E-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:35">
+    </row>
+    <row r="39" spans="1:33">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -23893,16 +22485,10 @@
       <c r="AG39">
         <v>0</v>
       </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:35">
+    </row>
+    <row r="40" spans="1:33">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>-302.906967</v>
@@ -24000,16 +22586,10 @@
       <c r="AG40">
         <v>3.254749701428357</v>
       </c>
-      <c r="AH40">
-        <v>0.0001889254756616594</v>
-      </c>
-      <c r="AI40">
-        <v>2.844557183823626E-05</v>
-      </c>
-    </row>
-    <row r="41" spans="1:35">
+    </row>
+    <row r="41" spans="1:33">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41">
         <v>-302.906967</v>
@@ -24107,16 +22687,10 @@
       <c r="AG41">
         <v>3.254749701428357</v>
       </c>
-      <c r="AH41">
-        <v>0.0001889254756616594</v>
-      </c>
-      <c r="AI41">
-        <v>2.844557183823626E-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:35">
+    </row>
+    <row r="42" spans="1:33">
       <c r="A42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B42">
         <v>-302.907129</v>
@@ -24214,16 +22788,10 @@
       <c r="AG42">
         <v>3.266518267835377</v>
       </c>
-      <c r="AH42">
-        <v>3.128011778831864E-05</v>
-      </c>
-      <c r="AI42">
-        <v>4.709170623532936E-06</v>
-      </c>
-    </row>
-    <row r="43" spans="1:35">
+    </row>
+    <row r="43" spans="1:33">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B43">
         <v>-302.907129</v>
@@ -24309,16 +22877,10 @@
       <c r="AG43">
         <v>3.266518267835377</v>
       </c>
-      <c r="AH43">
-        <v>3.128011778831864E-05</v>
-      </c>
-      <c r="AI43">
-        <v>4.709170623532936E-06</v>
-      </c>
-    </row>
-    <row r="44" spans="1:35">
+    </row>
+    <row r="44" spans="1:33">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -24404,16 +22966,10 @@
       <c r="AG44">
         <v>0</v>
       </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35">
+    </row>
+    <row r="45" spans="1:33">
       <c r="A45" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B45">
         <v>-302.907129</v>
@@ -24499,16 +23055,10 @@
       <c r="AG45">
         <v>3.266518267835377</v>
       </c>
-      <c r="AH45">
-        <v>3.128011778831864E-05</v>
-      </c>
-      <c r="AI45">
-        <v>4.709170623532936E-06</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35">
+    </row>
+    <row r="46" spans="1:33">
       <c r="A46" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B46">
         <v>-302.907129</v>
@@ -24594,16 +23144,10 @@
       <c r="AG46">
         <v>3.266518267835377</v>
       </c>
-      <c r="AH46">
-        <v>3.128011778831864E-05</v>
-      </c>
-      <c r="AI46">
-        <v>4.709170623532936E-06</v>
-      </c>
-    </row>
-    <row r="47" spans="1:35">
+    </row>
+    <row r="47" spans="1:33">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -24689,16 +23233,10 @@
       <c r="AG47">
         <v>0</v>
       </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:35">
+    </row>
+    <row r="48" spans="1:33">
       <c r="A48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B48">
         <v>-302.907129</v>
@@ -24796,16 +23334,10 @@
       <c r="AG48">
         <v>3.266518267835377</v>
       </c>
-      <c r="AH48">
-        <v>3.128011778831864E-05</v>
-      </c>
-      <c r="AI48">
-        <v>4.709170623532936E-06</v>
-      </c>
-    </row>
-    <row r="49" spans="1:35">
+    </row>
+    <row r="49" spans="1:33">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B49">
         <v>-302.907129</v>
@@ -24903,16 +23435,10 @@
       <c r="AG49">
         <v>3.266518267835377</v>
       </c>
-      <c r="AH49">
-        <v>3.128011778831864E-05</v>
-      </c>
-      <c r="AI49">
-        <v>4.709170623532936E-06</v>
-      </c>
-    </row>
-    <row r="50" spans="1:35">
+    </row>
+    <row r="50" spans="1:33">
       <c r="A50" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B50">
         <v>-302.905843</v>
@@ -25010,16 +23536,10 @@
       <c r="AG50">
         <v>3.262784862130815</v>
       </c>
-      <c r="AH50">
-        <v>0.001018016957671878</v>
-      </c>
-      <c r="AI50">
-        <v>0.0001531931169143332</v>
-      </c>
-    </row>
-    <row r="51" spans="1:35">
+    </row>
+    <row r="51" spans="1:33">
       <c r="A51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B51">
         <v>-302.905843</v>
@@ -25105,16 +23625,10 @@
       <c r="AG51">
         <v>3.262784862130815</v>
       </c>
-      <c r="AH51">
-        <v>0.001018016957671878</v>
-      </c>
-      <c r="AI51">
-        <v>0.0001531931169143332</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35">
+    </row>
+    <row r="52" spans="1:33">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -25200,16 +23714,10 @@
       <c r="AG52">
         <v>0</v>
       </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
-      <c r="AI52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:35">
+    </row>
+    <row r="53" spans="1:33">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B53">
         <v>-302.905843</v>
@@ -25295,16 +23803,10 @@
       <c r="AG53">
         <v>3.262784862130815</v>
       </c>
-      <c r="AH53">
-        <v>0.001018016957671878</v>
-      </c>
-      <c r="AI53">
-        <v>0.0001531931169143332</v>
-      </c>
-    </row>
-    <row r="54" spans="1:35">
+    </row>
+    <row r="54" spans="1:33">
       <c r="A54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B54">
         <v>-302.905843</v>
@@ -25390,16 +23892,10 @@
       <c r="AG54">
         <v>3.262784862130815</v>
       </c>
-      <c r="AH54">
-        <v>0.001018016957671878</v>
-      </c>
-      <c r="AI54">
-        <v>0.0001531931169143332</v>
-      </c>
-    </row>
-    <row r="55" spans="1:35">
+    </row>
+    <row r="55" spans="1:33">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -25485,16 +23981,10 @@
       <c r="AG55">
         <v>0</v>
       </c>
-      <c r="AH55">
-        <v>0</v>
-      </c>
-      <c r="AI55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:35">
+    </row>
+    <row r="56" spans="1:33">
       <c r="A56" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B56">
         <v>-302.905843</v>
@@ -25592,16 +24082,10 @@
       <c r="AG56">
         <v>3.262784862130815</v>
       </c>
-      <c r="AH56">
-        <v>0.001018016957671878</v>
-      </c>
-      <c r="AI56">
-        <v>0.0001531931169143332</v>
-      </c>
-    </row>
-    <row r="57" spans="1:35">
+    </row>
+    <row r="57" spans="1:33">
       <c r="A57" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B57">
         <v>-302.905843</v>
@@ -25699,16 +24183,10 @@
       <c r="AG57">
         <v>3.262784862130815</v>
       </c>
-      <c r="AH57">
-        <v>0.001018016957671878</v>
-      </c>
-      <c r="AI57">
-        <v>0.0001531931169143332</v>
-      </c>
-    </row>
-    <row r="58" spans="1:35">
+    </row>
+    <row r="58" spans="1:33">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B58">
         <v>-342.195779</v>
@@ -25806,16 +24284,10 @@
       <c r="AG58">
         <v>3.295653866340422</v>
       </c>
-      <c r="AH58">
-        <v>0.000217438659122282</v>
-      </c>
-      <c r="AI58">
-        <v>3.261711797565641E-05</v>
-      </c>
-    </row>
-    <row r="59" spans="1:35">
+    </row>
+    <row r="59" spans="1:33">
       <c r="A59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B59">
         <v>-342.195779</v>
@@ -25901,16 +24373,10 @@
       <c r="AG59">
         <v>3.295653866340422</v>
       </c>
-      <c r="AH59">
-        <v>0.000217438659122282</v>
-      </c>
-      <c r="AI59">
-        <v>3.261711797565641E-05</v>
-      </c>
-    </row>
-    <row r="60" spans="1:35">
+    </row>
+    <row r="60" spans="1:33">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -25996,16 +24462,10 @@
       <c r="AG60">
         <v>0</v>
       </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
-      <c r="AI60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:35">
+    </row>
+    <row r="61" spans="1:33">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B61">
         <v>-342.195779</v>
@@ -26091,16 +24551,10 @@
       <c r="AG61">
         <v>3.295653866340422</v>
       </c>
-      <c r="AH61">
-        <v>0.000217438659122282</v>
-      </c>
-      <c r="AI61">
-        <v>3.261711797565641E-05</v>
-      </c>
-    </row>
-    <row r="62" spans="1:35">
+    </row>
+    <row r="62" spans="1:33">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B62">
         <v>-342.195779</v>
@@ -26186,16 +24640,10 @@
       <c r="AG62">
         <v>3.295653866340422</v>
       </c>
-      <c r="AH62">
-        <v>0.000217438659122282</v>
-      </c>
-      <c r="AI62">
-        <v>3.261711797565641E-05</v>
-      </c>
-    </row>
-    <row r="63" spans="1:35">
+    </row>
+    <row r="63" spans="1:33">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -26281,16 +24729,10 @@
       <c r="AG63">
         <v>0</v>
       </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
-      <c r="AI63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:35">
+    </row>
+    <row r="64" spans="1:33">
       <c r="A64" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B64">
         <v>-342.195779</v>
@@ -26388,16 +24830,10 @@
       <c r="AG64">
         <v>3.295653866340422</v>
       </c>
-      <c r="AH64">
-        <v>0.000217438659122282</v>
-      </c>
-      <c r="AI64">
-        <v>3.261711797565641E-05</v>
-      </c>
-    </row>
-    <row r="65" spans="1:35">
+    </row>
+    <row r="65" spans="1:33">
       <c r="A65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B65">
         <v>-342.195779</v>
@@ -26495,16 +24931,10 @@
       <c r="AG65">
         <v>3.295653866340422</v>
       </c>
-      <c r="AH65">
-        <v>0.000217438659122282</v>
-      </c>
-      <c r="AI65">
-        <v>3.261711797565641E-05</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35">
+    </row>
+    <row r="66" spans="1:33">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B66">
         <v>-342.196159</v>
@@ -26602,16 +25032,10 @@
       <c r="AG66">
         <v>3.270054036323949</v>
       </c>
-      <c r="AH66">
-        <v>0.0006975798426361785</v>
-      </c>
-      <c r="AI66">
-        <v>0.00010475404666875</v>
-      </c>
-    </row>
-    <row r="67" spans="1:35">
+    </row>
+    <row r="67" spans="1:33">
       <c r="A67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B67">
         <v>-342.196159</v>
@@ -26697,16 +25121,10 @@
       <c r="AG67">
         <v>3.270054036323949</v>
       </c>
-      <c r="AH67">
-        <v>0.0006975798426361785</v>
-      </c>
-      <c r="AI67">
-        <v>0.00010475404666875</v>
-      </c>
-    </row>
-    <row r="68" spans="1:35">
+    </row>
+    <row r="68" spans="1:33">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -26792,16 +25210,10 @@
       <c r="AG68">
         <v>0</v>
       </c>
-      <c r="AH68">
-        <v>0</v>
-      </c>
-      <c r="AI68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:35">
+    </row>
+    <row r="69" spans="1:33">
       <c r="A69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B69">
         <v>-342.196159</v>
@@ -26887,16 +25299,10 @@
       <c r="AG69">
         <v>3.270054036323949</v>
       </c>
-      <c r="AH69">
-        <v>0.0006975798426361785</v>
-      </c>
-      <c r="AI69">
-        <v>0.00010475404666875</v>
-      </c>
-    </row>
-    <row r="70" spans="1:35">
+    </row>
+    <row r="70" spans="1:33">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B70">
         <v>-342.196159</v>
@@ -26982,16 +25388,10 @@
       <c r="AG70">
         <v>3.270054036323949</v>
       </c>
-      <c r="AH70">
-        <v>0.0006975798426361785</v>
-      </c>
-      <c r="AI70">
-        <v>0.00010475404666875</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35">
+    </row>
+    <row r="71" spans="1:33">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -27077,16 +25477,10 @@
       <c r="AG71">
         <v>0</v>
       </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
-      <c r="AI71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:35">
+    </row>
+    <row r="72" spans="1:33">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B72">
         <v>-342.196159</v>
@@ -27184,16 +25578,10 @@
       <c r="AG72">
         <v>3.270054036323949</v>
       </c>
-      <c r="AH72">
-        <v>0.0006975798426361785</v>
-      </c>
-      <c r="AI72">
-        <v>0.00010475404666875</v>
-      </c>
-    </row>
-    <row r="73" spans="1:35">
+    </row>
+    <row r="73" spans="1:33">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B73">
         <v>-342.196159</v>
@@ -27291,16 +25679,10 @@
       <c r="AG73">
         <v>3.270054036323949</v>
       </c>
-      <c r="AH73">
-        <v>0.0006975798426361785</v>
-      </c>
-      <c r="AI73">
-        <v>0.00010475404666875</v>
-      </c>
-    </row>
-    <row r="74" spans="1:35">
+    </row>
+    <row r="74" spans="1:33">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B74">
         <v>-342.192548</v>
@@ -27398,16 +25780,10 @@
       <c r="AG74">
         <v>3.264943661955711</v>
       </c>
-      <c r="AH74">
-        <v>0.0004265269065535014</v>
-      </c>
-      <c r="AI74">
-        <v>6.405954750363721E-05</v>
-      </c>
-    </row>
-    <row r="75" spans="1:35">
+    </row>
+    <row r="75" spans="1:33">
       <c r="A75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B75">
         <v>-342.192548</v>
@@ -27493,16 +25869,10 @@
       <c r="AG75">
         <v>3.264943661955711</v>
       </c>
-      <c r="AH75">
-        <v>0.0004265269065535014</v>
-      </c>
-      <c r="AI75">
-        <v>6.405954750363721E-05</v>
-      </c>
-    </row>
-    <row r="76" spans="1:35">
+    </row>
+    <row r="76" spans="1:33">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -27588,16 +25958,10 @@
       <c r="AG76">
         <v>0</v>
       </c>
-      <c r="AH76">
-        <v>0</v>
-      </c>
-      <c r="AI76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:35">
+    </row>
+    <row r="77" spans="1:33">
       <c r="A77" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B77">
         <v>-342.192548</v>
@@ -27683,16 +26047,10 @@
       <c r="AG77">
         <v>3.264943661955711</v>
       </c>
-      <c r="AH77">
-        <v>0.0004265269065535014</v>
-      </c>
-      <c r="AI77">
-        <v>6.405954750363721E-05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:35">
+    </row>
+    <row r="78" spans="1:33">
       <c r="A78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B78">
         <v>-342.192548</v>
@@ -27778,16 +26136,10 @@
       <c r="AG78">
         <v>3.264943661955711</v>
       </c>
-      <c r="AH78">
-        <v>0.0004265269065535014</v>
-      </c>
-      <c r="AI78">
-        <v>6.405954750363721E-05</v>
-      </c>
-    </row>
-    <row r="79" spans="1:35">
+    </row>
+    <row r="79" spans="1:33">
       <c r="A79" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -27873,16 +26225,10 @@
       <c r="AG79">
         <v>0</v>
       </c>
-      <c r="AH79">
-        <v>0</v>
-      </c>
-      <c r="AI79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:35">
+    </row>
+    <row r="80" spans="1:33">
       <c r="A80" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B80">
         <v>-342.192548</v>
@@ -27980,16 +26326,10 @@
       <c r="AG80">
         <v>3.264943661955711</v>
       </c>
-      <c r="AH80">
-        <v>0.0004265269065535014</v>
-      </c>
-      <c r="AI80">
-        <v>6.405954750363721E-05</v>
-      </c>
-    </row>
-    <row r="81" spans="1:35">
+    </row>
+    <row r="81" spans="1:33">
       <c r="A81" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B81">
         <v>-342.192548</v>
@@ -28086,12 +26426,6 @@
       </c>
       <c r="AG81">
         <v>3.264943661955711</v>
-      </c>
-      <c r="AH81">
-        <v>0.0004265269065535014</v>
-      </c>
-      <c r="AI81">
-        <v>6.405954750363721E-05</v>
       </c>
     </row>
   </sheetData>
@@ -28101,7 +26435,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -28128,13 +26462,11 @@
     <col min="24" max="25" width="19.7109375" customWidth="1"/>
     <col min="26" max="26" width="33.7109375" customWidth="1"/>
     <col min="27" max="28" width="34.7109375" customWidth="1"/>
-    <col min="29" max="29" width="36.7109375" customWidth="1"/>
-    <col min="30" max="30" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -28158,75 +26490,69 @@
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>-456.606644</v>
@@ -28309,16 +26635,10 @@
       <c r="AB2">
         <v>4.413689539907482</v>
       </c>
-      <c r="AC2">
-        <v>0.001162478920763459</v>
-      </c>
-      <c r="AD2">
-        <v>0.0001750313116540436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B3">
         <v>-456.587224</v>
@@ -28401,16 +26721,10 @@
       <c r="AB3">
         <v>5.717709155491042</v>
       </c>
-      <c r="AC3">
-        <v>0.9798182362187645</v>
-      </c>
-      <c r="AD3">
-        <v>0.1471382082192786</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>-495.921385</v>
@@ -28493,16 +26807,10 @@
       <c r="AB4">
         <v>4.376254323248389</v>
       </c>
-      <c r="AC4">
-        <v>0.001027951456986088</v>
-      </c>
-      <c r="AD4">
-        <v>0.0001542465140779137</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B5">
         <v>-495.914512</v>
@@ -28585,16 +26893,10 @@
       <c r="AB5">
         <v>5.662686495953656</v>
       </c>
-      <c r="AC5">
-        <v>0.0003095146100446279</v>
-      </c>
-      <c r="AD5">
-        <v>4.582803147754092E-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+    </row>
+    <row r="6" spans="1:28">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>-302.96869</v>
@@ -28677,16 +26979,10 @@
       <c r="AB6">
         <v>3.254749701428357</v>
       </c>
-      <c r="AC6">
-        <v>0.0001889254756616594</v>
-      </c>
-      <c r="AD6">
-        <v>2.844557183823626E-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+    </row>
+    <row r="7" spans="1:28">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B7">
         <v>-302.968962</v>
@@ -28769,16 +27065,10 @@
       <c r="AB7">
         <v>3.266518267835377</v>
       </c>
-      <c r="AC7">
-        <v>3.128011778831864E-05</v>
-      </c>
-      <c r="AD7">
-        <v>4.709170623532936E-06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+    </row>
+    <row r="8" spans="1:28">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B8">
         <v>-302.967347</v>
@@ -28861,16 +27151,10 @@
       <c r="AB8">
         <v>3.262784862130815</v>
       </c>
-      <c r="AC8">
-        <v>0.001018016957671878</v>
-      </c>
-      <c r="AD8">
-        <v>0.0001531931169143332</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+    </row>
+    <row r="9" spans="1:28">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B9">
         <v>-342.283197</v>
@@ -28953,16 +27237,10 @@
       <c r="AB9">
         <v>3.295653866340422</v>
       </c>
-      <c r="AC9">
-        <v>0.000217438659122282</v>
-      </c>
-      <c r="AD9">
-        <v>3.261711797565641E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+    </row>
+    <row r="10" spans="1:28">
       <c r="A10" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B10">
         <v>-342.283768</v>
@@ -29045,16 +27323,10 @@
       <c r="AB10">
         <v>3.270054036323949</v>
       </c>
-      <c r="AC10">
-        <v>0.0006975798426361785</v>
-      </c>
-      <c r="AD10">
-        <v>0.00010475404666875</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+    </row>
+    <row r="11" spans="1:28">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B11">
         <v>-342.279133</v>
@@ -29136,12 +27408,6 @@
       </c>
       <c r="AB11">
         <v>3.264943661955711</v>
-      </c>
-      <c r="AC11">
-        <v>0.0004265269065535014</v>
-      </c>
-      <c r="AD11">
-        <v>6.405954750363721E-05</v>
       </c>
     </row>
   </sheetData>
@@ -29151,7 +27417,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI33"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -29183,11 +27449,9 @@
     <col min="28" max="30" width="17.7109375" customWidth="1"/>
     <col min="31" max="31" width="27.7109375" customWidth="1"/>
     <col min="32" max="33" width="28.7109375" customWidth="1"/>
-    <col min="34" max="34" width="30.7109375" customWidth="1"/>
-    <col min="35" max="35" width="41.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:33">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -29287,16 +27551,10 @@
       <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35">
+    </row>
+    <row r="2" spans="1:33">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B2">
         <v>-456.497082</v>
@@ -29394,16 +27652,10 @@
       <c r="AG2">
         <v>4.366581268688364</v>
       </c>
-      <c r="AH2">
-        <v>0.001237640649965756</v>
-      </c>
-      <c r="AI2">
-        <v>0.0001863180381383483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+    </row>
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3">
         <v>-456.497082</v>
@@ -29489,16 +27741,10 @@
       <c r="AG3">
         <v>4.366581268688364</v>
       </c>
-      <c r="AH3">
-        <v>0.001237640649965756</v>
-      </c>
-      <c r="AI3">
-        <v>0.0001863180381383483</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+    </row>
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -29584,16 +27830,10 @@
       <c r="AG4">
         <v>0</v>
       </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+    </row>
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>-456.497082</v>
@@ -29679,16 +27919,10 @@
       <c r="AG5">
         <v>4.366581268688364</v>
       </c>
-      <c r="AH5">
-        <v>0.001237640649965756</v>
-      </c>
-      <c r="AI5">
-        <v>0.0001863180381383483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+    </row>
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>-456.497082</v>
@@ -29774,16 +28008,10 @@
       <c r="AG6">
         <v>4.366581268688364</v>
       </c>
-      <c r="AH6">
-        <v>0.001237640649965756</v>
-      </c>
-      <c r="AI6">
-        <v>0.0001863180381383483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
+    </row>
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -29869,16 +28097,10 @@
       <c r="AG7">
         <v>0</v>
       </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
+    </row>
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>-456.497082</v>
@@ -29976,16 +28198,10 @@
       <c r="AG8">
         <v>4.366581268688364</v>
       </c>
-      <c r="AH8">
-        <v>0.001237640649965756</v>
-      </c>
-      <c r="AI8">
-        <v>0.0001863180381383483</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
+    </row>
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>-456.497082</v>
@@ -30083,16 +28299,10 @@
       <c r="AG9">
         <v>4.366581268688364</v>
       </c>
-      <c r="AH9">
-        <v>0.001237640649965756</v>
-      </c>
-      <c r="AI9">
-        <v>0.0001863180381383483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35">
+    </row>
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B10">
         <v>-495.786067</v>
@@ -30190,16 +28400,10 @@
       <c r="AG10">
         <v>4.332953324415987</v>
       </c>
-      <c r="AH10">
-        <v>0.0007736275475564862</v>
-      </c>
-      <c r="AI10">
-        <v>0.0001161890690014869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35">
+    </row>
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>-495.786067</v>
@@ -30285,16 +28489,10 @@
       <c r="AG11">
         <v>4.332953324415987</v>
       </c>
-      <c r="AH11">
-        <v>0.0007736275475564862</v>
-      </c>
-      <c r="AI11">
-        <v>0.0001161890690014869</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35">
+    </row>
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -30380,16 +28578,10 @@
       <c r="AG12">
         <v>0</v>
       </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35">
+    </row>
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>-495.786067</v>
@@ -30475,16 +28667,10 @@
       <c r="AG13">
         <v>4.332953324415987</v>
       </c>
-      <c r="AH13">
-        <v>0.0007736275475564862</v>
-      </c>
-      <c r="AI13">
-        <v>0.0001161890690014869</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35">
+    </row>
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>-495.786067</v>
@@ -30570,16 +28756,10 @@
       <c r="AG14">
         <v>4.332953324415987</v>
       </c>
-      <c r="AH14">
-        <v>0.0007736275475564862</v>
-      </c>
-      <c r="AI14">
-        <v>0.0001161890690014869</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35">
+    </row>
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -30665,16 +28845,10 @@
       <c r="AG15">
         <v>0</v>
       </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35">
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>-495.786067</v>
@@ -30772,16 +28946,10 @@
       <c r="AG16">
         <v>4.332953324415987</v>
       </c>
-      <c r="AH16">
-        <v>0.0007736275475564862</v>
-      </c>
-      <c r="AI16">
-        <v>0.0001161890690014869</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35">
+    </row>
+    <row r="17" spans="1:33">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>-495.786067</v>
@@ -30879,16 +29047,10 @@
       <c r="AG17">
         <v>4.332953324415987</v>
       </c>
-      <c r="AH17">
-        <v>0.0007736275475564862</v>
-      </c>
-      <c r="AI17">
-        <v>0.0001161890690014869</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35">
+    </row>
+    <row r="18" spans="1:33">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B18">
         <v>-302.900832</v>
@@ -30986,16 +29148,10 @@
       <c r="AG18">
         <v>3.270370091187877</v>
       </c>
-      <c r="AH18">
-        <v>6.042864575363498E-05</v>
-      </c>
-      <c r="AI18">
-        <v>9.097469598202788E-06</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35">
+    </row>
+    <row r="19" spans="1:33">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19">
         <v>-302.900832</v>
@@ -31081,16 +29237,10 @@
       <c r="AG19">
         <v>3.270370091187877</v>
       </c>
-      <c r="AH19">
-        <v>6.042864575363498E-05</v>
-      </c>
-      <c r="AI19">
-        <v>9.097469598202788E-06</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35">
+    </row>
+    <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -31176,16 +29326,10 @@
       <c r="AG20">
         <v>0</v>
       </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35">
+    </row>
+    <row r="21" spans="1:33">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21">
         <v>-302.900832</v>
@@ -31271,16 +29415,10 @@
       <c r="AG21">
         <v>3.270370091187877</v>
       </c>
-      <c r="AH21">
-        <v>6.042864575363498E-05</v>
-      </c>
-      <c r="AI21">
-        <v>9.097469598202788E-06</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35">
+    </row>
+    <row r="22" spans="1:33">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B22">
         <v>-302.900832</v>
@@ -31366,16 +29504,10 @@
       <c r="AG22">
         <v>3.270370091187877</v>
       </c>
-      <c r="AH22">
-        <v>6.042864575363498E-05</v>
-      </c>
-      <c r="AI22">
-        <v>9.097469598202788E-06</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35">
+    </row>
+    <row r="23" spans="1:33">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -31461,16 +29593,10 @@
       <c r="AG23">
         <v>0</v>
       </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35">
+    </row>
+    <row r="24" spans="1:33">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>-302.900832</v>
@@ -31568,16 +29694,10 @@
       <c r="AG24">
         <v>3.270370091187877</v>
       </c>
-      <c r="AH24">
-        <v>6.042864575363498E-05</v>
-      </c>
-      <c r="AI24">
-        <v>9.097469598202788E-06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35">
+    </row>
+    <row r="25" spans="1:33">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>-302.900832</v>
@@ -31675,16 +29795,10 @@
       <c r="AG25">
         <v>3.270370091187877</v>
       </c>
-      <c r="AH25">
-        <v>6.042864575363498E-05</v>
-      </c>
-      <c r="AI25">
-        <v>9.097469598202788E-06</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35">
+    </row>
+    <row r="26" spans="1:33">
       <c r="A26" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B26">
         <v>-342.187964</v>
@@ -31782,16 +29896,10 @@
       <c r="AG26">
         <v>3.266762849868151</v>
       </c>
-      <c r="AH26">
-        <v>0.0007720985343004276</v>
-      </c>
-      <c r="AI26">
-        <v>0.0001158093321595495</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35">
+    </row>
+    <row r="27" spans="1:33">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>-342.187964</v>
@@ -31877,16 +29985,10 @@
       <c r="AG27">
         <v>3.266762849868151</v>
       </c>
-      <c r="AH27">
-        <v>0.0007720985343004276</v>
-      </c>
-      <c r="AI27">
-        <v>0.0001158093321595495</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35">
+    </row>
+    <row r="28" spans="1:33">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -31972,16 +30074,10 @@
       <c r="AG28">
         <v>0</v>
       </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35">
+    </row>
+    <row r="29" spans="1:33">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>-342.187964</v>
@@ -32067,16 +30163,10 @@
       <c r="AG29">
         <v>3.266762849868151</v>
       </c>
-      <c r="AH29">
-        <v>0.0007720985343004276</v>
-      </c>
-      <c r="AI29">
-        <v>0.0001158093321595495</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35">
+    </row>
+    <row r="30" spans="1:33">
       <c r="A30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>-342.187964</v>
@@ -32162,16 +30252,10 @@
       <c r="AG30">
         <v>3.266762849868151</v>
       </c>
-      <c r="AH30">
-        <v>0.0007720985343004276</v>
-      </c>
-      <c r="AI30">
-        <v>0.0001158093321595495</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35">
+    </row>
+    <row r="31" spans="1:33">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -32257,16 +30341,10 @@
       <c r="AG31">
         <v>0</v>
       </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35">
+    </row>
+    <row r="32" spans="1:33">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>-342.187964</v>
@@ -32364,16 +30442,10 @@
       <c r="AG32">
         <v>3.266762849868151</v>
       </c>
-      <c r="AH32">
-        <v>0.0007720985343004276</v>
-      </c>
-      <c r="AI32">
-        <v>0.0001158093321595495</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35">
+    </row>
+    <row r="33" spans="1:33">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>-342.187964</v>
@@ -32470,12 +30542,6 @@
       </c>
       <c r="AG33">
         <v>3.266762849868151</v>
-      </c>
-      <c r="AH33">
-        <v>0.0007720985343004276</v>
-      </c>
-      <c r="AI33">
-        <v>0.0001158093321595495</v>
       </c>
     </row>
   </sheetData>
@@ -32485,7 +30551,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -32512,13 +30578,11 @@
     <col min="24" max="25" width="19.7109375" customWidth="1"/>
     <col min="26" max="26" width="33.7109375" customWidth="1"/>
     <col min="27" max="28" width="34.7109375" customWidth="1"/>
-    <col min="29" max="29" width="36.7109375" customWidth="1"/>
-    <col min="30" max="30" width="47.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -32542,75 +30606,69 @@
         <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B2">
         <v>-456.601997</v>
@@ -32693,16 +30751,10 @@
       <c r="AB2">
         <v>4.366581268688364</v>
       </c>
-      <c r="AC2">
-        <v>0.001237640649965756</v>
-      </c>
-      <c r="AD2">
-        <v>0.0001863180381383483</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+    </row>
+    <row r="3" spans="1:28">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B3">
         <v>-495.916761</v>
@@ -32785,16 +30837,10 @@
       <c r="AB3">
         <v>4.332953324415987</v>
       </c>
-      <c r="AC3">
-        <v>0.0007736275475564862</v>
-      </c>
-      <c r="AD3">
-        <v>0.0001161890690014869</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+    </row>
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B4">
         <v>-302.962267</v>
@@ -32877,16 +30923,10 @@
       <c r="AB4">
         <v>3.270370091187877</v>
       </c>
-      <c r="AC4">
-        <v>6.042864575363498E-05</v>
-      </c>
-      <c r="AD4">
-        <v>9.097469598202788E-06</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+    </row>
+    <row r="5" spans="1:28">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B5">
         <v>-342.27414</v>
@@ -32968,12 +31008,6 @@
       </c>
       <c r="AB5">
         <v>3.266762849868151</v>
-      </c>
-      <c r="AC5">
-        <v>0.0007720985343004276</v>
-      </c>
-      <c r="AD5">
-        <v>0.0001158093321595495</v>
       </c>
     </row>
   </sheetData>
